--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1112382.573798955</v>
+        <v>1107259.889855171</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24279984.78636199</v>
+        <v>24279984.786362</v>
       </c>
     </row>
     <row r="8">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.925162786127229</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>4.259309774520659</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>132.5238580138898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.909227738304165</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1460,13 +1460,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>104.7928835793171</v>
       </c>
       <c r="H12" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T12" t="n">
-        <v>153.2045223101729</v>
+        <v>52.58103409487601</v>
       </c>
       <c r="U12" t="n">
         <v>195.3031364387235</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13.29928325424477</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S13" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.1150376599508</v>
@@ -1590,7 +1590,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>171.0509798110082</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>16.98123570663461</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>61.10541451944374</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>104.7928835793171</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.2045223101729</v>
       </c>
       <c r="U15" t="n">
-        <v>85.46518136906079</v>
+        <v>121.4980093585225</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>52.67171019511296</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I16" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>233.1150376599508</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9186143115952</v>
+        <v>198.9304566751817</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>163.0147028615127</v>
       </c>
       <c r="G17" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2214126980871</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.7611609493298</v>
+        <v>210.7611609493297</v>
       </c>
       <c r="U17" t="n">
         <v>254.3213292762975</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>114.1718337133419</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66.55724363848407</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -1940,7 +1940,7 @@
         <v>104.7928835793171</v>
       </c>
       <c r="H18" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T18" t="n">
-        <v>153.2045223101729</v>
+        <v>140.0138895142795</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.88438915866482</v>
+        <v>90.17994253224578</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I19" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S19" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.1150376599508</v>
@@ -2061,7 +2061,7 @@
         <v>279.9186143115952</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>387.7505119346922</v>
       </c>
       <c r="G20" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.259309774520631</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.91570073608035</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>184.4922825378117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>51.32522249088477</v>
       </c>
       <c r="G21" t="n">
         <v>104.7928835793171</v>
@@ -2222,10 +2222,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>26.20471478062104</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>139.4321428168064</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>233.1150376599508</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>210.4397499544868</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>129.6066056404569</v>
+        <v>381.1272173371151</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T23" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.3289105292536</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2405,7 +2405,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3031364387235</v>
+        <v>154.8154101961692</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.24528807902799</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>45.08945200497903</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>131.8240810588618</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T26" t="n">
-        <v>4.86003810822352</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2648,10 +2648,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H27" t="n">
-        <v>12.02730054750107</v>
+        <v>35.28465781514014</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.2045223101729</v>
@@ -2702,7 +2702,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>67.6270149396906</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>139.7084588006711</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.0570925953575</v>
+        <v>86.05411262705518</v>
       </c>
       <c r="T28" t="n">
         <v>233.1150376599508</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>376.2651535197335</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>309.4846288436356</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>89.08999685598582</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.97048700994887</v>
+        <v>38.84566168259667</v>
       </c>
       <c r="T30" t="n">
         <v>153.2045223101729</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2961,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>93.31112483026365</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.13484436059161</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>399.7052598106939</v>
       </c>
       <c r="F32" t="n">
-        <v>214.359997681213</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45012490857004</v>
+        <v>104.7928835793171</v>
       </c>
       <c r="H33" t="n">
-        <v>59.15212587485323</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.97048700994887</v>
+        <v>52.03943981782732</v>
       </c>
       <c r="T33" t="n">
         <v>153.2045223101729</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>139.7084588006711</v>
@@ -3237,25 +3237,25 @@
         <v>41.9242330327962</v>
       </c>
       <c r="S34" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.1150376599508</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4372366120009</v>
+        <v>135.4515930195648</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>22.10830685923999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>157.8271671990086</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.534031931252</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,10 +3356,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7928835793171</v>
+        <v>49.50363665487273</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T36" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>94.67964822342701</v>
+        <v>195.3031364387235</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.919343269538</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H37" t="n">
         <v>139.7084588006711</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>168.0570925953575</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.87676482904774</v>
       </c>
       <c r="U37" t="n">
         <v>279.9186143115952</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>38.45881538293422</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>105.0184120852153</v>
       </c>
       <c r="G38" t="n">
         <v>402.534031931252</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.259309774520659</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>111.7795087576247</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7928835793171</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T39" t="n">
         <v>153.2045223101729</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>29.4254284815129</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.8479931038832</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>279.9186143115952</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>93.97525194319591</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>172.4010837886379</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.745946333653444</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>45.8168292422562</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3872,7 +3872,7 @@
         <v>85.97048700994887</v>
       </c>
       <c r="T42" t="n">
-        <v>96.65946378173683</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U42" t="n">
         <v>195.3031364387235</v>
@@ -3881,10 +3881,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4834894548836</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.0271866648263</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U43" t="n">
         <v>279.9186143115952</v>
@@ -3960,10 +3960,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>388.9714630482276</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.534031931252</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.756282558691499</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>76.11006201010757</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4118,10 +4118,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>118.01766351406</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>61.86148999134795</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>139.7084588006711</v>
       </c>
       <c r="I46" t="n">
-        <v>51.81500384968983</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>279.9186143115952</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>328.4646474866843</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="C11" t="n">
-        <v>328.4646474866843</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="D11" t="n">
-        <v>328.4646474866843</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="E11" t="n">
-        <v>328.4646474866843</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="F11" t="n">
-        <v>328.4646474866843</v>
+        <v>41.29671828268437</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4646474866843</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H11" t="n">
         <v>39.35210940780838</v>
       </c>
       <c r="I11" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J11" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K11" t="n">
-        <v>316.5867763250665</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L11" t="n">
-        <v>551.2268399181752</v>
+        <v>551.226839918175</v>
       </c>
       <c r="M11" t="n">
-        <v>825.1352431304736</v>
+        <v>825.1352431304733</v>
       </c>
       <c r="N11" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O11" t="n">
-        <v>1364.537108414119</v>
+        <v>1364.537108414118</v>
       </c>
       <c r="P11" t="n">
         <v>1571.77921458767</v>
@@ -5071,22 +5071,22 @@
         <v>1665.705279014547</v>
       </c>
       <c r="T11" t="n">
-        <v>1452.815217449568</v>
+        <v>1452.815217449567</v>
       </c>
       <c r="U11" t="n">
         <v>1195.924985857348</v>
       </c>
       <c r="V11" t="n">
-        <v>846.0874311938287</v>
+        <v>846.0874311938283</v>
       </c>
       <c r="W11" t="n">
-        <v>462.3271303289973</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="X11" t="n">
-        <v>462.3271303289973</v>
+        <v>462.3271303289968</v>
       </c>
       <c r="Y11" t="n">
-        <v>328.4646474866843</v>
+        <v>462.3271303289968</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>547.0006495586841</v>
+        <v>512.2862188964316</v>
       </c>
       <c r="C12" t="n">
-        <v>547.0006495586841</v>
+        <v>378.2911476453774</v>
       </c>
       <c r="D12" t="n">
-        <v>430.1034917780765</v>
+        <v>261.3939898647698</v>
       </c>
       <c r="E12" t="n">
-        <v>309.6106757704045</v>
+        <v>140.9011738570977</v>
       </c>
       <c r="F12" t="n">
-        <v>200.6507959529091</v>
+        <v>140.9011738570977</v>
       </c>
       <c r="G12" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H12" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I12" t="n">
         <v>53.13964940227881</v>
@@ -5138,7 +5138,7 @@
         <v>1334.882253800993</v>
       </c>
       <c r="P12" t="n">
-        <v>1567.298293732328</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q12" t="n">
         <v>1653.63600483296</v>
@@ -5150,22 +5150,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T12" t="n">
-        <v>1510.897896606425</v>
+        <v>1612.537783692583</v>
       </c>
       <c r="U12" t="n">
-        <v>1313.622001213775</v>
+        <v>1415.261888299933</v>
       </c>
       <c r="V12" t="n">
-        <v>1099.910474206808</v>
+        <v>1201.550361292966</v>
       </c>
       <c r="W12" t="n">
-        <v>886.6773059431372</v>
+        <v>988.3171930292954</v>
       </c>
       <c r="X12" t="n">
-        <v>710.35132408203</v>
+        <v>811.9912111681882</v>
       </c>
       <c r="Y12" t="n">
-        <v>550.9493644458601</v>
+        <v>652.5892515320182</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.04977630223196</v>
+        <v>282.1812216072944</v>
       </c>
       <c r="C13" t="n">
-        <v>35.04977630223196</v>
+        <v>282.1812216072944</v>
       </c>
       <c r="D13" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="E13" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="F13" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="G13" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="H13" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="I13" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J13" t="n">
-        <v>50.28231988082791</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K13" t="n">
-        <v>107.2614557846585</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L13" t="n">
-        <v>506.2660918160911</v>
+        <v>777.5476490331416</v>
       </c>
       <c r="M13" t="n">
-        <v>940.0070735562117</v>
+        <v>868.5147480934394</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.027777761814</v>
+        <v>960.5011508514559</v>
       </c>
       <c r="O13" t="n">
-        <v>1676.943631869032</v>
+        <v>1352.313440636309</v>
       </c>
       <c r="P13" t="n">
-        <v>1734.885747605796</v>
+        <v>1671.153039846191</v>
       </c>
       <c r="Q13" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R13" t="n">
-        <v>1739.055195662866</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="S13" t="n">
-        <v>1569.300556677656</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="T13" t="n">
-        <v>1333.830821667605</v>
+        <v>1474.671369967409</v>
       </c>
       <c r="U13" t="n">
-        <v>1051.084746605388</v>
+        <v>1191.925294905191</v>
       </c>
       <c r="V13" t="n">
-        <v>777.1990015449096</v>
+        <v>918.0395498447133</v>
       </c>
       <c r="W13" t="n">
-        <v>498.1293370537839</v>
+        <v>745.2607823588464</v>
       </c>
       <c r="X13" t="n">
-        <v>259.7854749134673</v>
+        <v>506.9169202185298</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.04977630223196</v>
+        <v>282.1812216072944</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462.3271303289968</v>
+        <v>1342.267635447109</v>
       </c>
       <c r="C14" t="n">
-        <v>52.20253964226691</v>
+        <v>932.1430447603788</v>
       </c>
       <c r="D14" t="n">
-        <v>52.20253964226691</v>
+        <v>932.1430447603788</v>
       </c>
       <c r="E14" t="n">
-        <v>52.20253964226691</v>
+        <v>517.8028292772755</v>
       </c>
       <c r="F14" t="n">
-        <v>35.04977630223195</v>
+        <v>96.77241723096301</v>
       </c>
       <c r="G14" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="H14" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I14" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J14" t="n">
         <v>139.4975455796488</v>
@@ -5284,16 +5284,16 @@
         <v>316.5867763250664</v>
       </c>
       <c r="L14" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M14" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N14" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O14" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P14" t="n">
         <v>1571.77921458767</v>
@@ -5305,25 +5305,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S14" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T14" t="n">
-        <v>1452.815217449567</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U14" t="n">
-        <v>1195.924985857348</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V14" t="n">
-        <v>846.0874311938283</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W14" t="n">
-        <v>462.3271303289968</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="X14" t="n">
-        <v>462.3271303289968</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="Y14" t="n">
-        <v>462.3271303289968</v>
+        <v>1752.488815111598</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>680.9957208097385</v>
+        <v>572.035840992243</v>
       </c>
       <c r="C15" t="n">
-        <v>547.0006495586841</v>
+        <v>438.0407697411887</v>
       </c>
       <c r="D15" t="n">
-        <v>430.1034917780765</v>
+        <v>321.1436119605811</v>
       </c>
       <c r="E15" t="n">
-        <v>309.6106757704045</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="F15" t="n">
         <v>200.6507959529091</v>
@@ -5351,58 +5351,58 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H15" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I15" t="n">
-        <v>35.04977630223195</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J15" t="n">
-        <v>333.3053281020599</v>
+        <v>164.9772277499355</v>
       </c>
       <c r="K15" t="n">
-        <v>458.2561622618961</v>
+        <v>289.9280619097717</v>
       </c>
       <c r="L15" t="n">
-        <v>736.1340616586915</v>
+        <v>476.7005074961846</v>
       </c>
       <c r="M15" t="n">
-        <v>961.9282277806719</v>
+        <v>702.4946736181651</v>
       </c>
       <c r="N15" t="n">
-        <v>1199.533994799268</v>
+        <v>940.1004406367615</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.897834511329</v>
+        <v>1148.464280348822</v>
       </c>
       <c r="P15" t="n">
-        <v>1567.298293732328</v>
+        <v>1307.864739569821</v>
       </c>
       <c r="Q15" t="n">
-        <v>1653.63600483296</v>
+        <v>1741.605721309941</v>
       </c>
       <c r="R15" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S15" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T15" t="n">
-        <v>1510.897896606424</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U15" t="n">
-        <v>1424.56943057707</v>
+        <v>1475.011510395744</v>
       </c>
       <c r="V15" t="n">
-        <v>1210.857903570104</v>
+        <v>1261.299983388778</v>
       </c>
       <c r="W15" t="n">
-        <v>997.6247353064323</v>
+        <v>1048.066815125107</v>
       </c>
       <c r="X15" t="n">
-        <v>821.2987534453251</v>
+        <v>871.7408332639997</v>
       </c>
       <c r="Y15" t="n">
-        <v>821.2987534453251</v>
+        <v>712.3388736278297</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.8903246020357</v>
+        <v>337.0802467881257</v>
       </c>
       <c r="C16" t="n">
-        <v>175.8903246020357</v>
+        <v>337.0802467881257</v>
       </c>
       <c r="D16" t="n">
-        <v>175.8903246020357</v>
+        <v>337.0802467881257</v>
       </c>
       <c r="E16" t="n">
-        <v>175.8903246020357</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="F16" t="n">
-        <v>175.8903246020357</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="G16" t="n">
-        <v>175.8903246020357</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H16" t="n">
-        <v>122.6865769302044</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="I16" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J16" t="n">
         <v>50.28231988082791</v>
       </c>
       <c r="K16" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L16" t="n">
-        <v>712.5462854018053</v>
+        <v>506.2660918160911</v>
       </c>
       <c r="M16" t="n">
-        <v>805.9734956472062</v>
+        <v>940.0070735562117</v>
       </c>
       <c r="N16" t="n">
-        <v>897.9598984052227</v>
+        <v>1364.027777761814</v>
       </c>
       <c r="O16" t="n">
-        <v>1289.772188190076</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P16" t="n">
-        <v>1608.611787399958</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q16" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R16" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S16" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T16" t="n">
-        <v>1474.671369967409</v>
+        <v>1517.019080101547</v>
       </c>
       <c r="U16" t="n">
-        <v>1191.925294905191</v>
+        <v>1316.07922487409</v>
       </c>
       <c r="V16" t="n">
-        <v>918.0395498447133</v>
+        <v>1042.193479813612</v>
       </c>
       <c r="W16" t="n">
-        <v>638.9698853535876</v>
+        <v>763.1238153224867</v>
       </c>
       <c r="X16" t="n">
-        <v>400.626023213271</v>
+        <v>524.7799531821702</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.8903246020357</v>
+        <v>524.7799531821702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.7623466348978</v>
+        <v>898.9482210895678</v>
       </c>
       <c r="C17" t="n">
-        <v>730.7623466348978</v>
+        <v>488.8236304028379</v>
       </c>
       <c r="D17" t="n">
-        <v>730.7623466348978</v>
+        <v>488.8236304028379</v>
       </c>
       <c r="E17" t="n">
-        <v>730.7623466348978</v>
+        <v>488.8236304028379</v>
       </c>
       <c r="F17" t="n">
-        <v>730.7623466348978</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="G17" t="n">
         <v>324.1623143811079</v>
@@ -5515,7 +5515,7 @@
         <v>35.04977630223197</v>
       </c>
       <c r="J17" t="n">
-        <v>139.4975455796489</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K17" t="n">
         <v>316.5867763250665</v>
@@ -5524,7 +5524,7 @@
         <v>551.2268399181753</v>
       </c>
       <c r="M17" t="n">
-        <v>825.1352431304738</v>
+        <v>825.1352431304737</v>
       </c>
       <c r="N17" t="n">
         <v>1105.344363062594</v>
@@ -5542,25 +5542,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S17" t="n">
-        <v>1665.705279014547</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T17" t="n">
-        <v>1452.815217449568</v>
+        <v>1539.598753546619</v>
       </c>
       <c r="U17" t="n">
-        <v>1195.924985857348</v>
+        <v>1282.708521954399</v>
       </c>
       <c r="V17" t="n">
-        <v>846.0874311938289</v>
+        <v>1282.708521954399</v>
       </c>
       <c r="W17" t="n">
-        <v>730.7623466348978</v>
+        <v>898.9482210895678</v>
       </c>
       <c r="X17" t="n">
-        <v>730.7623466348978</v>
+        <v>898.9482210895678</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.7623466348978</v>
+        <v>898.9482210895678</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>680.9957208097385</v>
+        <v>621.246098713927</v>
       </c>
       <c r="C18" t="n">
-        <v>547.0006495586841</v>
+        <v>487.2510274628728</v>
       </c>
       <c r="D18" t="n">
-        <v>430.1034917780765</v>
+        <v>370.3538696822652</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6106757704045</v>
+        <v>249.8610536745932</v>
       </c>
       <c r="F18" t="n">
-        <v>200.6507959529091</v>
+        <v>140.9011738570977</v>
       </c>
       <c r="G18" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="H18" t="n">
         <v>35.04977630223197</v>
@@ -5594,28 +5594,28 @@
         <v>53.13964940227882</v>
       </c>
       <c r="J18" t="n">
-        <v>107.7267972274735</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K18" t="n">
-        <v>232.6776313873097</v>
+        <v>549.3616160722792</v>
       </c>
       <c r="L18" t="n">
-        <v>627.9685634141492</v>
+        <v>736.1340616586921</v>
       </c>
       <c r="M18" t="n">
-        <v>853.7627295361297</v>
+        <v>961.9282277806725</v>
       </c>
       <c r="N18" t="n">
-        <v>1287.50371127625</v>
+        <v>1199.533994799269</v>
       </c>
       <c r="O18" t="n">
-        <v>1495.867550988311</v>
+        <v>1407.897834511329</v>
       </c>
       <c r="P18" t="n">
-        <v>1655.26801020931</v>
+        <v>1567.298293732329</v>
       </c>
       <c r="Q18" t="n">
-        <v>1741.605721309942</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R18" t="n">
         <v>1752.488815111598</v>
@@ -5624,22 +5624,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T18" t="n">
-        <v>1510.897896606425</v>
+        <v>1524.221768117428</v>
       </c>
       <c r="U18" t="n">
-        <v>1510.897896606425</v>
+        <v>1524.221768117428</v>
       </c>
       <c r="V18" t="n">
-        <v>1297.186369599459</v>
+        <v>1310.510241110462</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.953201335788</v>
+        <v>1097.277072846791</v>
       </c>
       <c r="X18" t="n">
-        <v>907.6272194746803</v>
+        <v>920.9510909856837</v>
       </c>
       <c r="Y18" t="n">
-        <v>748.2252598385103</v>
+        <v>761.5491313495137</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.1745039138034</v>
+        <v>267.2602826991177</v>
       </c>
       <c r="C19" t="n">
-        <v>655.0811314755199</v>
+        <v>267.2602826991177</v>
       </c>
       <c r="D19" t="n">
-        <v>495.5864867984299</v>
+        <v>267.2602826991177</v>
       </c>
       <c r="E19" t="n">
-        <v>334.6756716667494</v>
+        <v>267.2602826991177</v>
       </c>
       <c r="F19" t="n">
-        <v>170.0445457773407</v>
+        <v>267.2602826991177</v>
       </c>
       <c r="G19" t="n">
-        <v>122.6865769302045</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H19" t="n">
-        <v>122.6865769302045</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="I19" t="n">
         <v>35.04977630223197</v>
       </c>
       <c r="J19" t="n">
-        <v>50.28231988082793</v>
+        <v>50.28231988082794</v>
       </c>
       <c r="K19" t="n">
         <v>107.2614557846586</v>
       </c>
       <c r="L19" t="n">
-        <v>192.2869805810682</v>
+        <v>427.3696561384558</v>
       </c>
       <c r="M19" t="n">
-        <v>626.0279623211887</v>
+        <v>861.1106378785763</v>
       </c>
       <c r="N19" t="n">
-        <v>1024.23385861106</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O19" t="n">
-        <v>1416.046148395914</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P19" t="n">
         <v>1734.885747605796</v>
@@ -5697,28 +5697,28 @@
         <v>1752.488815111598</v>
       </c>
       <c r="R19" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="S19" t="n">
-        <v>1582.734176126389</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="T19" t="n">
-        <v>1347.264441116337</v>
+        <v>1474.671369967409</v>
       </c>
       <c r="U19" t="n">
-        <v>1064.51836605412</v>
+        <v>1191.925294905192</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.51836605412</v>
+        <v>918.039549844714</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.51836605412</v>
+        <v>918.039549844714</v>
       </c>
       <c r="X19" t="n">
-        <v>826.1745039138034</v>
+        <v>679.6956877043974</v>
       </c>
       <c r="Y19" t="n">
-        <v>826.1745039138034</v>
+        <v>454.9599890931621</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1566.132974164314</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="C20" t="n">
-        <v>1566.132974164314</v>
+        <v>845.359508663328</v>
       </c>
       <c r="D20" t="n">
-        <v>1566.132974164314</v>
+        <v>845.359508663328</v>
       </c>
       <c r="E20" t="n">
-        <v>1151.79275868121</v>
+        <v>431.0192931802247</v>
       </c>
       <c r="F20" t="n">
-        <v>730.7623466348978</v>
+        <v>39.35210940780836</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1623143811079</v>
+        <v>39.35210940780836</v>
       </c>
       <c r="H20" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780836</v>
       </c>
       <c r="I20" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J20" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K20" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250665</v>
       </c>
       <c r="L20" t="n">
-        <v>551.2268399181751</v>
+        <v>551.2268399181755</v>
       </c>
       <c r="M20" t="n">
-        <v>825.1352431304736</v>
+        <v>825.1352431304737</v>
       </c>
       <c r="N20" t="n">
-        <v>1105.344363062593</v>
+        <v>1105.344363062594</v>
       </c>
       <c r="O20" t="n">
         <v>1364.537108414119</v>
@@ -5779,25 +5779,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S20" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T20" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U20" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.132974164314</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W20" t="n">
-        <v>1566.132974164314</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X20" t="n">
-        <v>1566.132974164314</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.132974164314</v>
+        <v>1665.705279014547</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>560.5029048020664</v>
+        <v>623.8795000739448</v>
       </c>
       <c r="C21" t="n">
-        <v>426.5078335510121</v>
+        <v>489.8844288228905</v>
       </c>
       <c r="D21" t="n">
-        <v>309.6106757704045</v>
+        <v>372.9872710422829</v>
       </c>
       <c r="E21" t="n">
-        <v>309.6106757704045</v>
+        <v>252.4944550346109</v>
       </c>
       <c r="F21" t="n">
         <v>200.6507959529091</v>
@@ -5825,34 +5825,34 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H21" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="I21" t="n">
-        <v>53.13964940227881</v>
+        <v>53.13964940227882</v>
       </c>
       <c r="J21" t="n">
-        <v>107.7267972274735</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K21" t="n">
-        <v>232.6776313873097</v>
+        <v>637.3313325492604</v>
       </c>
       <c r="L21" t="n">
-        <v>419.4500769737226</v>
+        <v>824.1037781356733</v>
       </c>
       <c r="M21" t="n">
-        <v>645.244243095703</v>
+        <v>1049.897944257654</v>
       </c>
       <c r="N21" t="n">
-        <v>882.8500101142995</v>
+        <v>1287.50371127625</v>
       </c>
       <c r="O21" t="n">
-        <v>1091.21384982636</v>
+        <v>1495.867550988311</v>
       </c>
       <c r="P21" t="n">
-        <v>1250.614309047359</v>
+        <v>1655.26801020931</v>
       </c>
       <c r="Q21" t="n">
-        <v>1684.355290787479</v>
+        <v>1741.605721309942</v>
       </c>
       <c r="R21" t="n">
         <v>1752.488815111598</v>
@@ -5867,16 +5867,16 @@
         <v>1313.622001213775</v>
       </c>
       <c r="V21" t="n">
-        <v>1099.910474206808</v>
+        <v>1099.910474206809</v>
       </c>
       <c r="W21" t="n">
-        <v>886.6773059431372</v>
+        <v>1099.910474206809</v>
       </c>
       <c r="X21" t="n">
-        <v>860.207897073823</v>
+        <v>923.5844923457014</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.805937437653</v>
+        <v>764.1825327095314</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>837.6843052219455</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="C22" t="n">
-        <v>666.590932783662</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="D22" t="n">
-        <v>507.096288106572</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="E22" t="n">
-        <v>507.096288106572</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="F22" t="n">
-        <v>342.4651622171633</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="G22" t="n">
-        <v>176.1694316564452</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="H22" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="I22" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J22" t="n">
-        <v>50.28231988082791</v>
+        <v>50.28231988082794</v>
       </c>
       <c r="K22" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846586</v>
       </c>
       <c r="L22" t="n">
-        <v>712.5462854018053</v>
+        <v>427.3696561384558</v>
       </c>
       <c r="M22" t="n">
-        <v>1146.287267141926</v>
+        <v>861.1106378785763</v>
       </c>
       <c r="N22" t="n">
-        <v>1339.308618029801</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O22" t="n">
-        <v>1416.046148395914</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P22" t="n">
         <v>1734.885747605796</v>
@@ -5934,28 +5934,28 @@
         <v>1752.488815111598</v>
       </c>
       <c r="R22" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="S22" t="n">
-        <v>1752.488815111598</v>
+        <v>1710.141104977461</v>
       </c>
       <c r="T22" t="n">
-        <v>1517.019080101547</v>
+        <v>1474.671369967409</v>
       </c>
       <c r="U22" t="n">
-        <v>1517.019080101547</v>
+        <v>1191.925294905192</v>
       </c>
       <c r="V22" t="n">
-        <v>1517.019080101547</v>
+        <v>918.039549844714</v>
       </c>
       <c r="W22" t="n">
-        <v>1237.949415610421</v>
+        <v>638.9698853535883</v>
       </c>
       <c r="X22" t="n">
-        <v>1025.38401161599</v>
+        <v>400.6260232132717</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.38401161599</v>
+        <v>175.8903246020364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1282.708521954399</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="C23" t="n">
-        <v>1282.708521954399</v>
+        <v>845.359508663328</v>
       </c>
       <c r="D23" t="n">
-        <v>1282.708521954399</v>
+        <v>845.359508663328</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.79275868121</v>
+        <v>460.3825214541208</v>
       </c>
       <c r="F23" t="n">
-        <v>730.7623466348978</v>
+        <v>39.35210940780839</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1623143811079</v>
+        <v>39.35210940780839</v>
       </c>
       <c r="H23" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780839</v>
       </c>
       <c r="I23" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J23" t="n">
         <v>139.4975455796487</v>
       </c>
       <c r="K23" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L23" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M23" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N23" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O23" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P23" t="n">
         <v>1571.77921458767</v>
@@ -6016,25 +6016,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S23" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T23" t="n">
-        <v>1539.598753546619</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U23" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W23" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X23" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="Y23" t="n">
-        <v>1282.708521954399</v>
+        <v>1665.705279014547</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>572.035840992243</v>
+        <v>451.5430249845709</v>
       </c>
       <c r="C24" t="n">
-        <v>438.0407697411887</v>
+        <v>317.5479537335166</v>
       </c>
       <c r="D24" t="n">
-        <v>321.1436119605811</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="E24" t="n">
         <v>200.6507959529091</v>
@@ -6062,34 +6062,34 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H24" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13964940227881</v>
+        <v>53.13964940227882</v>
       </c>
       <c r="J24" t="n">
         <v>351.3952012021068</v>
       </c>
       <c r="K24" t="n">
-        <v>476.3460353619429</v>
+        <v>476.346035361943</v>
       </c>
       <c r="L24" t="n">
-        <v>663.1184809483558</v>
+        <v>663.1184809483559</v>
       </c>
       <c r="M24" t="n">
-        <v>888.9126470703362</v>
+        <v>888.9126470703363</v>
       </c>
       <c r="N24" t="n">
         <v>1126.518414088933</v>
       </c>
       <c r="O24" t="n">
-        <v>1495.867550988311</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P24" t="n">
-        <v>1655.26801020931</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q24" t="n">
-        <v>1741.605721309941</v>
+        <v>1741.605721309942</v>
       </c>
       <c r="R24" t="n">
         <v>1752.488815111598</v>
@@ -6098,22 +6098,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T24" t="n">
-        <v>1665.649939343973</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="U24" t="n">
-        <v>1468.374043951323</v>
+        <v>1354.518694388072</v>
       </c>
       <c r="V24" t="n">
-        <v>1254.662516944357</v>
+        <v>1140.807167381106</v>
       </c>
       <c r="W24" t="n">
-        <v>1041.429348680686</v>
+        <v>927.5739991174348</v>
       </c>
       <c r="X24" t="n">
-        <v>865.1033668195782</v>
+        <v>751.2480172563276</v>
       </c>
       <c r="Y24" t="n">
-        <v>705.7014071834083</v>
+        <v>591.8460576201576</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>925.321105849918</v>
+        <v>822.6398834748765</v>
       </c>
       <c r="C25" t="n">
-        <v>754.2277334116345</v>
+        <v>651.546511036593</v>
       </c>
       <c r="D25" t="n">
-        <v>594.7330887345445</v>
+        <v>651.546511036593</v>
       </c>
       <c r="E25" t="n">
         <v>594.7330887345445</v>
@@ -6144,55 +6144,55 @@
         <v>122.6865769302045</v>
       </c>
       <c r="I25" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J25" t="n">
-        <v>50.28231988082791</v>
+        <v>50.28231988082793</v>
       </c>
       <c r="K25" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846586</v>
       </c>
       <c r="L25" t="n">
-        <v>687.3072733258266</v>
+        <v>427.3696561384558</v>
       </c>
       <c r="M25" t="n">
-        <v>1121.048255065947</v>
+        <v>861.1106378785763</v>
       </c>
       <c r="N25" t="n">
-        <v>1213.034657823964</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O25" t="n">
-        <v>1289.772188190077</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P25" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q25" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R25" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S25" t="n">
-        <v>1710.141104977461</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T25" t="n">
-        <v>1474.671369967409</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="U25" t="n">
-        <v>1429.126468952279</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="V25" t="n">
-        <v>1429.126468952279</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="W25" t="n">
-        <v>1150.056804461153</v>
+        <v>1473.419150620473</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.056804461153</v>
+        <v>1235.075288480156</v>
       </c>
       <c r="Y25" t="n">
-        <v>925.321105849918</v>
+        <v>1010.339589868921</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>849.6382968959014</v>
+        <v>1007.878374370418</v>
       </c>
       <c r="C26" t="n">
-        <v>439.5137062091715</v>
+        <v>1007.878374370418</v>
       </c>
       <c r="D26" t="n">
-        <v>35.04977630223195</v>
+        <v>1007.878374370418</v>
       </c>
       <c r="E26" t="n">
-        <v>35.04977630223195</v>
+        <v>593.5381588873146</v>
       </c>
       <c r="F26" t="n">
-        <v>35.04977630223195</v>
+        <v>172.5077468410021</v>
       </c>
       <c r="G26" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780839</v>
       </c>
       <c r="H26" t="n">
-        <v>35.04977630223195</v>
+        <v>39.35210940780839</v>
       </c>
       <c r="I26" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J26" t="n">
-        <v>139.4975455796488</v>
+        <v>139.4975455796489</v>
       </c>
       <c r="K26" t="n">
-        <v>316.5867763250664</v>
+        <v>316.5867763250665</v>
       </c>
       <c r="L26" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M26" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N26" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O26" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P26" t="n">
         <v>1571.77921458767</v>
@@ -6256,22 +6256,22 @@
         <v>1665.705279014547</v>
       </c>
       <c r="T26" t="n">
-        <v>1660.796149612301</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U26" t="n">
-        <v>1660.796149612301</v>
+        <v>1408.815047422328</v>
       </c>
       <c r="V26" t="n">
-        <v>1660.796149612301</v>
+        <v>1408.815047422328</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.796149612301</v>
+        <v>1408.815047422328</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.796149612301</v>
+        <v>1408.815047422328</v>
       </c>
       <c r="Y26" t="n">
-        <v>1259.859476560391</v>
+        <v>1007.878374370418</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>410.646331810273</v>
+        <v>656.8871672140687</v>
       </c>
       <c r="C27" t="n">
-        <v>276.6512605592187</v>
+        <v>522.8920959630143</v>
       </c>
       <c r="D27" t="n">
-        <v>276.6512605592187</v>
+        <v>405.9949381824067</v>
       </c>
       <c r="E27" t="n">
-        <v>156.1584445515466</v>
+        <v>285.5021221747347</v>
       </c>
       <c r="F27" t="n">
-        <v>47.19856473405122</v>
+        <v>176.5422423572393</v>
       </c>
       <c r="G27" t="n">
-        <v>47.19856473405122</v>
+        <v>70.69084480237353</v>
       </c>
       <c r="H27" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13964940227881</v>
+        <v>53.13964940227882</v>
       </c>
       <c r="J27" t="n">
         <v>351.3952012021068</v>
       </c>
       <c r="K27" t="n">
-        <v>476.3460353619429</v>
+        <v>476.346035361943</v>
       </c>
       <c r="L27" t="n">
-        <v>663.1184809483558</v>
+        <v>663.1184809483559</v>
       </c>
       <c r="M27" t="n">
-        <v>888.9126470703362</v>
+        <v>888.9126470703363</v>
       </c>
       <c r="N27" t="n">
         <v>1126.518414088933</v>
       </c>
       <c r="O27" t="n">
-        <v>1495.86755098831</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P27" t="n">
-        <v>1655.268010209309</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q27" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R27" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S27" t="n">
-        <v>1665.649939343973</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T27" t="n">
-        <v>1510.897896606424</v>
+        <v>1597.73677237405</v>
       </c>
       <c r="U27" t="n">
-        <v>1313.622001213774</v>
+        <v>1400.4608769814</v>
       </c>
       <c r="V27" t="n">
-        <v>1099.910474206808</v>
+        <v>1186.749349974434</v>
       </c>
       <c r="W27" t="n">
-        <v>886.6773059431367</v>
+        <v>973.5161817107625</v>
       </c>
       <c r="X27" t="n">
-        <v>710.3513240820296</v>
+        <v>797.1901998496553</v>
       </c>
       <c r="Y27" t="n">
-        <v>550.9493644458596</v>
+        <v>797.1901998496553</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.4795477571428</v>
+        <v>594.3942493997912</v>
       </c>
       <c r="C28" t="n">
-        <v>244.4795477571428</v>
+        <v>423.3008769615077</v>
       </c>
       <c r="D28" t="n">
-        <v>176.1694316564452</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="E28" t="n">
-        <v>176.1694316564452</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="F28" t="n">
-        <v>176.1694316564452</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G28" t="n">
-        <v>176.1694316564452</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H28" t="n">
-        <v>35.04977630223195</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I28" t="n">
-        <v>35.04977630223195</v>
+        <v>35.04977630223197</v>
       </c>
       <c r="J28" t="n">
-        <v>50.28231988082791</v>
+        <v>50.28231988082793</v>
       </c>
       <c r="K28" t="n">
-        <v>313.5416493703726</v>
+        <v>107.2614557846586</v>
       </c>
       <c r="L28" t="n">
-        <v>427.3696561384552</v>
+        <v>427.3696561384558</v>
       </c>
       <c r="M28" t="n">
-        <v>861.1106378785756</v>
+        <v>861.1106378785763</v>
       </c>
       <c r="N28" t="n">
         <v>1285.131342084178</v>
       </c>
       <c r="O28" t="n">
-        <v>1676.943631869031</v>
+        <v>1676.943631869032</v>
       </c>
       <c r="P28" t="n">
-        <v>1734.885747605795</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q28" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R28" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S28" t="n">
-        <v>1540.386465992251</v>
+        <v>1665.565469023664</v>
       </c>
       <c r="T28" t="n">
-        <v>1304.916730982199</v>
+        <v>1430.095734013612</v>
       </c>
       <c r="U28" t="n">
-        <v>1022.170655919982</v>
+        <v>1147.349658951395</v>
       </c>
       <c r="V28" t="n">
-        <v>748.2849108595037</v>
+        <v>873.4639138909168</v>
       </c>
       <c r="W28" t="n">
-        <v>469.2152463683781</v>
+        <v>594.3942493997912</v>
       </c>
       <c r="X28" t="n">
-        <v>469.2152463683781</v>
+        <v>594.3942493997912</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.4795477571428</v>
+        <v>594.3942493997912</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>449.3899917853353</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="C29" t="n">
-        <v>449.3899917853353</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="D29" t="n">
-        <v>449.3899917853353</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="E29" t="n">
-        <v>35.04977630223196</v>
+        <v>1125.258538063515</v>
       </c>
       <c r="F29" t="n">
-        <v>35.04977630223196</v>
+        <v>704.2281260172024</v>
       </c>
       <c r="G29" t="n">
-        <v>35.04977630223196</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="H29" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I29" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J29" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796488</v>
       </c>
       <c r="K29" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250664</v>
       </c>
       <c r="L29" t="n">
-        <v>551.2268399181751</v>
+        <v>551.2268399181748</v>
       </c>
       <c r="M29" t="n">
-        <v>825.1352431304736</v>
+        <v>825.1352431304731</v>
       </c>
       <c r="N29" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O29" t="n">
-        <v>1364.537108414119</v>
+        <v>1364.537108414118</v>
       </c>
       <c r="P29" t="n">
-        <v>1571.77921458767</v>
+        <v>1571.779214587669</v>
       </c>
       <c r="Q29" t="n">
         <v>1707.899443143073</v>
@@ -6493,22 +6493,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T29" t="n">
-        <v>1752.488815111598</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="U29" t="n">
-        <v>1495.598583519379</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="V29" t="n">
-        <v>1145.761028855859</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="W29" t="n">
-        <v>762.0007279910278</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="X29" t="n">
-        <v>449.3899917853353</v>
+        <v>1539.598753546618</v>
       </c>
       <c r="Y29" t="n">
-        <v>449.3899917853353</v>
+        <v>1539.598753546618</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>410.6463318102734</v>
+        <v>458.247165474265</v>
       </c>
       <c r="C30" t="n">
-        <v>410.6463318102734</v>
+        <v>324.2520942232107</v>
       </c>
       <c r="D30" t="n">
-        <v>293.7491740296658</v>
+        <v>324.2520942232107</v>
       </c>
       <c r="E30" t="n">
         <v>203.7592782155387</v>
@@ -6536,31 +6536,31 @@
         <v>94.79939839804331</v>
       </c>
       <c r="H30" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I30" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63692412742667</v>
+        <v>333.3053281020599</v>
       </c>
       <c r="K30" t="n">
-        <v>429.3845169311203</v>
+        <v>458.2561622618961</v>
       </c>
       <c r="L30" t="n">
-        <v>616.1569625175332</v>
+        <v>645.028607848309</v>
       </c>
       <c r="M30" t="n">
-        <v>1049.897944257654</v>
+        <v>870.8227739702894</v>
       </c>
       <c r="N30" t="n">
-        <v>1287.50371127625</v>
+        <v>1108.428540988886</v>
       </c>
       <c r="O30" t="n">
-        <v>1495.867550988311</v>
+        <v>1316.792380700946</v>
       </c>
       <c r="P30" t="n">
-        <v>1655.26801020931</v>
+        <v>1476.192839921946</v>
       </c>
       <c r="Q30" t="n">
         <v>1741.605721309941</v>
@@ -6569,25 +6569,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S30" t="n">
-        <v>1665.649939343973</v>
+        <v>1713.250773007965</v>
       </c>
       <c r="T30" t="n">
-        <v>1510.897896606425</v>
+        <v>1558.498730270416</v>
       </c>
       <c r="U30" t="n">
-        <v>1313.622001213775</v>
+        <v>1361.222834877766</v>
       </c>
       <c r="V30" t="n">
-        <v>1099.910474206808</v>
+        <v>1147.5113078708</v>
       </c>
       <c r="W30" t="n">
-        <v>886.6773059431372</v>
+        <v>934.2781396071289</v>
       </c>
       <c r="X30" t="n">
-        <v>710.35132408203</v>
+        <v>757.9521577460216</v>
       </c>
       <c r="Y30" t="n">
-        <v>550.9493644458601</v>
+        <v>598.5501981098516</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>787.0980005547148</v>
+        <v>584.2116920931882</v>
       </c>
       <c r="C31" t="n">
-        <v>616.0046281164313</v>
+        <v>584.2116920931882</v>
       </c>
       <c r="D31" t="n">
-        <v>456.5099834393413</v>
+        <v>424.7170474160982</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5991683076608</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="F31" t="n">
-        <v>201.34550686295</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G31" t="n">
-        <v>35.04977630223196</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H31" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="I31" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J31" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K31" t="n">
-        <v>378.543013001709</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L31" t="n">
-        <v>463.5685377981187</v>
+        <v>192.2869805810681</v>
       </c>
       <c r="M31" t="n">
-        <v>897.3095195382391</v>
+        <v>600.2131544054577</v>
       </c>
       <c r="N31" t="n">
-        <v>1158.857381878341</v>
+        <v>1024.23385861106</v>
       </c>
       <c r="O31" t="n">
-        <v>1550.669671663195</v>
+        <v>1416.046148395913</v>
       </c>
       <c r="P31" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605795</v>
       </c>
       <c r="Q31" t="n">
         <v>1752.488815111598</v>
@@ -6651,22 +6651,22 @@
         <v>1752.488815111598</v>
       </c>
       <c r="T31" t="n">
-        <v>1752.488815111598</v>
+        <v>1517.019080101546</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.488815111598</v>
+        <v>1234.273005039329</v>
       </c>
       <c r="V31" t="n">
-        <v>1478.60307005112</v>
+        <v>960.3872599788508</v>
       </c>
       <c r="W31" t="n">
-        <v>1199.533405559994</v>
+        <v>681.3175954877252</v>
       </c>
       <c r="X31" t="n">
-        <v>1199.533405559994</v>
+        <v>584.2116920931882</v>
       </c>
       <c r="Y31" t="n">
-        <v>974.7977069487591</v>
+        <v>584.2116920931882</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>540.6875645641513</v>
+        <v>864.1252081315894</v>
       </c>
       <c r="C32" t="n">
-        <v>540.6875645641513</v>
+        <v>864.1252081315894</v>
       </c>
       <c r="D32" t="n">
-        <v>540.6875645641513</v>
+        <v>864.1252081315894</v>
       </c>
       <c r="E32" t="n">
-        <v>540.6875645641513</v>
+        <v>460.3825214541208</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1623143811079</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="G32" t="n">
-        <v>324.1623143811079</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H32" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I32" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J32" t="n">
         <v>139.4975455796484</v>
       </c>
       <c r="K32" t="n">
-        <v>316.5867763250662</v>
+        <v>316.586776325066</v>
       </c>
       <c r="L32" t="n">
-        <v>551.226839918175</v>
+        <v>551.2268399181748</v>
       </c>
       <c r="M32" t="n">
         <v>825.1352431304733</v>
@@ -6727,25 +6727,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="U32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="V32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W32" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X32" t="n">
-        <v>1351.845417280551</v>
+        <v>1265.061881183499</v>
       </c>
       <c r="Y32" t="n">
-        <v>950.9087442286408</v>
+        <v>864.1252081315894</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>607.9222272029232</v>
+        <v>621.246098713927</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9271559518689</v>
+        <v>487.2510274628727</v>
       </c>
       <c r="D33" t="n">
-        <v>357.0299981712613</v>
+        <v>370.3538696822652</v>
       </c>
       <c r="E33" t="n">
-        <v>236.5371821635893</v>
+        <v>249.8610536745931</v>
       </c>
       <c r="F33" t="n">
-        <v>127.5773023460939</v>
+        <v>140.9011738570977</v>
       </c>
       <c r="G33" t="n">
-        <v>94.79939839804331</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="H33" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J33" t="n">
-        <v>351.3952012021068</v>
+        <v>333.3053281020599</v>
       </c>
       <c r="K33" t="n">
-        <v>476.3460353619429</v>
+        <v>458.2561622618961</v>
       </c>
       <c r="L33" t="n">
-        <v>663.1184809483558</v>
+        <v>645.028607848309</v>
       </c>
       <c r="M33" t="n">
-        <v>888.9126470703362</v>
+        <v>870.8227739702894</v>
       </c>
       <c r="N33" t="n">
-        <v>1287.50371127625</v>
+        <v>1108.428540988886</v>
       </c>
       <c r="O33" t="n">
-        <v>1495.867550988311</v>
+        <v>1316.792380700946</v>
       </c>
       <c r="P33" t="n">
-        <v>1655.26801020931</v>
+        <v>1476.192839921946</v>
       </c>
       <c r="Q33" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R33" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S33" t="n">
-        <v>1665.649939343973</v>
+        <v>1699.92372438652</v>
       </c>
       <c r="T33" t="n">
-        <v>1510.897896606425</v>
+        <v>1545.171681648971</v>
       </c>
       <c r="U33" t="n">
-        <v>1510.897896606425</v>
+        <v>1347.895786256321</v>
       </c>
       <c r="V33" t="n">
-        <v>1297.186369599458</v>
+        <v>1134.184259249355</v>
       </c>
       <c r="W33" t="n">
-        <v>1083.953201335787</v>
+        <v>920.9510909856837</v>
       </c>
       <c r="X33" t="n">
-        <v>907.6272194746798</v>
+        <v>920.9510909856837</v>
       </c>
       <c r="Y33" t="n">
-        <v>748.2252598385098</v>
+        <v>761.5491313495137</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.7372763045084</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="C34" t="n">
-        <v>755.6439038662249</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="D34" t="n">
-        <v>755.6439038662249</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="E34" t="n">
-        <v>594.7330887345445</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="F34" t="n">
-        <v>430.1019628451357</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="G34" t="n">
         <v>263.8062322844177</v>
       </c>
       <c r="H34" t="n">
-        <v>122.6865769302045</v>
+        <v>122.6865769302044</v>
       </c>
       <c r="I34" t="n">
-        <v>35.04977630223196</v>
+        <v>35.04977630223195</v>
       </c>
       <c r="J34" t="n">
-        <v>80.18045003621882</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K34" t="n">
-        <v>343.4397795257635</v>
+        <v>378.543013001709</v>
       </c>
       <c r="L34" t="n">
-        <v>742.4444155571962</v>
+        <v>463.5685377981187</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.185397297317</v>
+        <v>897.3095195382391</v>
       </c>
       <c r="N34" t="n">
-        <v>1600.206101502919</v>
+        <v>1321.330223743841</v>
       </c>
       <c r="O34" t="n">
-        <v>1676.943631869032</v>
+        <v>1398.067754109954</v>
       </c>
       <c r="P34" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399958</v>
       </c>
       <c r="Q34" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R34" t="n">
-        <v>1710.141104977461</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="S34" t="n">
-        <v>1540.386465992251</v>
+        <v>1710.14110497746</v>
       </c>
       <c r="T34" t="n">
-        <v>1304.9167309822</v>
+        <v>1474.671369967409</v>
       </c>
       <c r="U34" t="n">
-        <v>1304.9167309822</v>
+        <v>1191.925294905191</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.9167309822</v>
+        <v>918.0395498447133</v>
       </c>
       <c r="W34" t="n">
-        <v>1304.9167309822</v>
+        <v>638.9698853535876</v>
       </c>
       <c r="X34" t="n">
-        <v>1066.572868841883</v>
+        <v>400.626023213271</v>
       </c>
       <c r="Y34" t="n">
-        <v>926.7372763045084</v>
+        <v>263.8062322844177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>601.0711895651215</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="C35" t="n">
-        <v>601.0711895651215</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="D35" t="n">
-        <v>601.0711895651215</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="E35" t="n">
-        <v>441.6498085560219</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="F35" t="n">
-        <v>441.6498085560219</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="G35" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="H35" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I35" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J35" t="n">
-        <v>139.4975455796487</v>
+        <v>139.4975455796484</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5867763250662</v>
+        <v>316.586776325066</v>
       </c>
       <c r="L35" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181746</v>
       </c>
       <c r="M35" t="n">
         <v>825.1352431304731</v>
@@ -6964,25 +6964,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S35" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="T35" t="n">
-        <v>1752.488815111598</v>
+        <v>1452.815217449568</v>
       </c>
       <c r="U35" t="n">
-        <v>1752.488815111598</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="V35" t="n">
-        <v>1402.651260448079</v>
+        <v>846.0874311938287</v>
       </c>
       <c r="W35" t="n">
-        <v>1402.651260448079</v>
+        <v>462.3271303289973</v>
       </c>
       <c r="X35" t="n">
-        <v>1002.007862617031</v>
+        <v>61.68373249794979</v>
       </c>
       <c r="Y35" t="n">
-        <v>601.0711895651215</v>
+        <v>61.68373249794979</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.2862188964316</v>
+        <v>565.3983745478216</v>
       </c>
       <c r="C36" t="n">
-        <v>378.2911476453774</v>
+        <v>431.4033032967673</v>
       </c>
       <c r="D36" t="n">
-        <v>261.3939898647698</v>
+        <v>314.5061455161597</v>
       </c>
       <c r="E36" t="n">
-        <v>140.9011738570977</v>
+        <v>194.0133295084877</v>
       </c>
       <c r="F36" t="n">
-        <v>140.9011738570977</v>
+        <v>85.0534496909923</v>
       </c>
       <c r="G36" t="n">
         <v>35.04977630223196</v>
@@ -7022,22 +7022,22 @@
         <v>476.3460353619429</v>
       </c>
       <c r="L36" t="n">
-        <v>824.1037781356733</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M36" t="n">
-        <v>1049.897944257654</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N36" t="n">
-        <v>1287.50371127625</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O36" t="n">
-        <v>1495.867550988311</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P36" t="n">
-        <v>1655.26801020931</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q36" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R36" t="n">
         <v>1752.488815111598</v>
@@ -7046,22 +7046,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T36" t="n">
-        <v>1510.897896606425</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="U36" t="n">
-        <v>1415.261888299933</v>
+        <v>1468.374043951323</v>
       </c>
       <c r="V36" t="n">
-        <v>1201.550361292966</v>
+        <v>1254.662516944357</v>
       </c>
       <c r="W36" t="n">
-        <v>988.3171930292954</v>
+        <v>1041.429348680686</v>
       </c>
       <c r="X36" t="n">
-        <v>811.9912111681882</v>
+        <v>865.1033668195782</v>
       </c>
       <c r="Y36" t="n">
-        <v>652.5892515320182</v>
+        <v>705.7014071834083</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>292.2495763731503</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="C37" t="n">
-        <v>292.2495763731503</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="D37" t="n">
-        <v>292.2495763731503</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="E37" t="n">
-        <v>292.2495763731503</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="F37" t="n">
-        <v>292.2495763731503</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="G37" t="n">
-        <v>176.1694316564452</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H37" t="n">
-        <v>35.04977630223196</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I37" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J37" t="n">
-        <v>50.28231988082791</v>
+        <v>115.2836835121643</v>
       </c>
       <c r="K37" t="n">
-        <v>107.2614557846585</v>
+        <v>216.0701711362089</v>
       </c>
       <c r="L37" t="n">
-        <v>506.2660918160911</v>
+        <v>301.0956959326185</v>
       </c>
       <c r="M37" t="n">
-        <v>861.1106378785761</v>
+        <v>734.836677672739</v>
       </c>
       <c r="N37" t="n">
-        <v>1285.131342084178</v>
+        <v>1158.857381878341</v>
       </c>
       <c r="O37" t="n">
-        <v>1676.943631869032</v>
+        <v>1550.669671663195</v>
       </c>
       <c r="P37" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q37" t="n">
         <v>1752.488815111598</v>
@@ -7125,22 +7125,22 @@
         <v>1540.386465992251</v>
       </c>
       <c r="T37" t="n">
-        <v>1540.386465992251</v>
+        <v>1504.147309599274</v>
       </c>
       <c r="U37" t="n">
-        <v>1257.640390930034</v>
+        <v>1221.401234537056</v>
       </c>
       <c r="V37" t="n">
-        <v>983.7546458695556</v>
+        <v>947.5154894765781</v>
       </c>
       <c r="W37" t="n">
-        <v>704.6849813784299</v>
+        <v>668.4458249854524</v>
       </c>
       <c r="X37" t="n">
-        <v>704.6849813784299</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="Y37" t="n">
-        <v>479.9492827671946</v>
+        <v>430.1019628451357</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.867724351028</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="C38" t="n">
-        <v>1277.020436085438</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="D38" t="n">
-        <v>1277.020436085438</v>
+        <v>1255.484099350058</v>
       </c>
       <c r="E38" t="n">
-        <v>862.6802206023344</v>
+        <v>841.1438838669544</v>
       </c>
       <c r="F38" t="n">
-        <v>441.6498085560219</v>
+        <v>735.0646797404743</v>
       </c>
       <c r="G38" t="n">
-        <v>35.04977630223196</v>
+        <v>328.4646474866843</v>
       </c>
       <c r="H38" t="n">
-        <v>35.04977630223196</v>
+        <v>39.35210940780838</v>
       </c>
       <c r="I38" t="n">
         <v>35.04977630223196</v>
@@ -7177,19 +7177,19 @@
         <v>139.4975455796487</v>
       </c>
       <c r="K38" t="n">
-        <v>316.5867763250662</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L38" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M38" t="n">
-        <v>825.1352431304731</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N38" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O38" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P38" t="n">
         <v>1571.77921458767</v>
@@ -7210,16 +7210,16 @@
         <v>1665.705279014547</v>
       </c>
       <c r="V38" t="n">
-        <v>1315.867724351028</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="W38" t="n">
-        <v>1315.867724351028</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="X38" t="n">
-        <v>1315.867724351028</v>
+        <v>1665.705279014547</v>
       </c>
       <c r="Y38" t="n">
-        <v>1315.867724351028</v>
+        <v>1665.705279014547</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>680.9957208097385</v>
+        <v>438.0407697411887</v>
       </c>
       <c r="C39" t="n">
-        <v>547.0006495586841</v>
+        <v>438.0407697411887</v>
       </c>
       <c r="D39" t="n">
-        <v>430.1034917780765</v>
+        <v>321.1436119605811</v>
       </c>
       <c r="E39" t="n">
-        <v>309.6106757704045</v>
+        <v>200.6507959529091</v>
       </c>
       <c r="F39" t="n">
         <v>200.6507959529091</v>
@@ -7250,55 +7250,55 @@
         <v>35.04977630223196</v>
       </c>
       <c r="I39" t="n">
-        <v>35.04977630223196</v>
+        <v>53.13964940227881</v>
       </c>
       <c r="J39" t="n">
-        <v>316.2452836679001</v>
+        <v>351.3952012021068</v>
       </c>
       <c r="K39" t="n">
-        <v>441.1961178277363</v>
+        <v>476.3460353619429</v>
       </c>
       <c r="L39" t="n">
-        <v>627.9685634141492</v>
+        <v>663.1184809483558</v>
       </c>
       <c r="M39" t="n">
-        <v>853.7627295361297</v>
+        <v>888.9126470703362</v>
       </c>
       <c r="N39" t="n">
-        <v>1287.50371127625</v>
+        <v>1126.518414088933</v>
       </c>
       <c r="O39" t="n">
-        <v>1495.867550988311</v>
+        <v>1334.882253800993</v>
       </c>
       <c r="P39" t="n">
-        <v>1655.26801020931</v>
+        <v>1494.282713021992</v>
       </c>
       <c r="Q39" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R39" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="S39" t="n">
-        <v>1752.488815111598</v>
+        <v>1665.649939343973</v>
       </c>
       <c r="T39" t="n">
-        <v>1597.73677237405</v>
+        <v>1510.897896606425</v>
       </c>
       <c r="U39" t="n">
-        <v>1400.4608769814</v>
+        <v>1313.622001213775</v>
       </c>
       <c r="V39" t="n">
-        <v>1186.749349974433</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.026694942602</v>
+        <v>886.6773059431372</v>
       </c>
       <c r="X39" t="n">
-        <v>980.7007130814951</v>
+        <v>710.35132408203</v>
       </c>
       <c r="Y39" t="n">
-        <v>821.2987534453251</v>
+        <v>550.9493644458601</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>526.548608549286</v>
+        <v>513.5585346554467</v>
       </c>
       <c r="C40" t="n">
-        <v>355.4552361110025</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="D40" t="n">
-        <v>195.9605914339125</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="E40" t="n">
-        <v>35.04977630223196</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="F40" t="n">
-        <v>35.04977630223196</v>
+        <v>342.4651622171633</v>
       </c>
       <c r="G40" t="n">
-        <v>35.04977630223196</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H40" t="n">
         <v>35.04977630223196</v>
@@ -7335,22 +7335,22 @@
         <v>115.2836835121643</v>
       </c>
       <c r="K40" t="n">
-        <v>342.344131342046</v>
+        <v>216.0701711362089</v>
       </c>
       <c r="L40" t="n">
-        <v>427.3696561384556</v>
+        <v>301.0956959326185</v>
       </c>
       <c r="M40" t="n">
-        <v>861.1106378785761</v>
+        <v>734.836677672739</v>
       </c>
       <c r="N40" t="n">
-        <v>1285.131342084178</v>
+        <v>1158.857381878341</v>
       </c>
       <c r="O40" t="n">
-        <v>1676.943631869032</v>
+        <v>1550.669671663195</v>
       </c>
       <c r="P40" t="n">
-        <v>1734.885747605796</v>
+        <v>1608.611787399959</v>
       </c>
       <c r="Q40" t="n">
         <v>1752.488815111598</v>
@@ -7359,25 +7359,25 @@
         <v>1752.488815111598</v>
       </c>
       <c r="S40" t="n">
-        <v>1752.488815111598</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="T40" t="n">
-        <v>1752.488815111598</v>
+        <v>1582.734176126389</v>
       </c>
       <c r="U40" t="n">
-        <v>1469.742740049381</v>
+        <v>1299.988101064171</v>
       </c>
       <c r="V40" t="n">
-        <v>1195.856994988903</v>
+        <v>1299.988101064171</v>
       </c>
       <c r="W40" t="n">
-        <v>916.787330497777</v>
+        <v>1020.918436573045</v>
       </c>
       <c r="X40" t="n">
-        <v>916.787330497777</v>
+        <v>925.9939396607264</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.0516318865417</v>
+        <v>701.2582410494911</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1282.708521954399</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="C41" t="n">
-        <v>1282.708521954399</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="D41" t="n">
-        <v>878.2445920474593</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="E41" t="n">
-        <v>463.904376564356</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="F41" t="n">
-        <v>42.87396451804352</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="G41" t="n">
-        <v>42.87396451804352</v>
+        <v>324.1623143811079</v>
       </c>
       <c r="H41" t="n">
         <v>35.04977630223196</v>
@@ -7414,19 +7414,19 @@
         <v>139.4975455796487</v>
       </c>
       <c r="K41" t="n">
-        <v>316.586776325066</v>
+        <v>316.5867763250663</v>
       </c>
       <c r="L41" t="n">
-        <v>551.2268399181748</v>
+        <v>551.2268399181751</v>
       </c>
       <c r="M41" t="n">
-        <v>825.1352431304733</v>
+        <v>825.1352431304736</v>
       </c>
       <c r="N41" t="n">
         <v>1105.344363062593</v>
       </c>
       <c r="O41" t="n">
-        <v>1364.537108414118</v>
+        <v>1364.537108414119</v>
       </c>
       <c r="P41" t="n">
         <v>1571.77921458767</v>
@@ -7450,13 +7450,13 @@
         <v>1282.708521954399</v>
       </c>
       <c r="W41" t="n">
-        <v>1282.708521954399</v>
+        <v>898.9482210895674</v>
       </c>
       <c r="X41" t="n">
-        <v>1282.708521954399</v>
+        <v>498.3048232585199</v>
       </c>
       <c r="Y41" t="n">
-        <v>1282.708521954399</v>
+        <v>498.3048232585199</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J42" t="n">
-        <v>164.9772277499355</v>
+        <v>333.3053281020599</v>
       </c>
       <c r="K42" t="n">
-        <v>289.9280619097717</v>
+        <v>458.2561622618961</v>
       </c>
       <c r="L42" t="n">
-        <v>476.7005074961846</v>
+        <v>645.028607848309</v>
       </c>
       <c r="M42" t="n">
-        <v>702.4946736181651</v>
+        <v>870.8227739702894</v>
       </c>
       <c r="N42" t="n">
-        <v>940.1004406367615</v>
+        <v>1108.428540988886</v>
       </c>
       <c r="O42" t="n">
-        <v>1148.464280348822</v>
+        <v>1316.792380700946</v>
       </c>
       <c r="P42" t="n">
-        <v>1307.864739569821</v>
+        <v>1476.192839921946</v>
       </c>
       <c r="Q42" t="n">
-        <v>1741.605721309941</v>
+        <v>1653.63600483296</v>
       </c>
       <c r="R42" t="n">
         <v>1752.488815111598</v>
@@ -7520,22 +7520,22 @@
         <v>1665.649939343973</v>
       </c>
       <c r="T42" t="n">
-        <v>1568.014117342218</v>
+        <v>1510.897896606424</v>
       </c>
       <c r="U42" t="n">
-        <v>1370.738221949568</v>
+        <v>1313.622001213774</v>
       </c>
       <c r="V42" t="n">
-        <v>1157.026694942602</v>
+        <v>1099.910474206808</v>
       </c>
       <c r="W42" t="n">
-        <v>1157.026694942602</v>
+        <v>886.677305943137</v>
       </c>
       <c r="X42" t="n">
-        <v>980.7007130814951</v>
+        <v>886.677305943137</v>
       </c>
       <c r="Y42" t="n">
-        <v>821.2987534453251</v>
+        <v>727.275346306967</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>462.0042153583596</v>
+        <v>497.3076992272992</v>
       </c>
       <c r="C43" t="n">
-        <v>462.0042153583596</v>
+        <v>497.3076992272992</v>
       </c>
       <c r="D43" t="n">
-        <v>302.5095706812696</v>
+        <v>337.8130545502092</v>
       </c>
       <c r="E43" t="n">
-        <v>141.5987555495891</v>
+        <v>337.8130545502092</v>
       </c>
       <c r="F43" t="n">
-        <v>35.04977630223196</v>
+        <v>337.8130545502092</v>
       </c>
       <c r="G43" t="n">
-        <v>35.04977630223196</v>
+        <v>176.1694316564452</v>
       </c>
       <c r="H43" t="n">
         <v>35.04977630223196</v>
@@ -7569,52 +7569,52 @@
         <v>35.04977630223196</v>
       </c>
       <c r="J43" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K43" t="n">
-        <v>244.8649425810084</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L43" t="n">
-        <v>643.869578612441</v>
+        <v>427.3696561384554</v>
       </c>
       <c r="M43" t="n">
-        <v>734.8366776727388</v>
+        <v>861.1106378785759</v>
       </c>
       <c r="N43" t="n">
-        <v>1158.857381878341</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O43" t="n">
-        <v>1550.669671663194</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P43" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q43" t="n">
         <v>1752.488815111598</v>
       </c>
       <c r="R43" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="S43" t="n">
-        <v>1710.14110497746</v>
+        <v>1752.488815111598</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.14110497746</v>
+        <v>1517.019080101546</v>
       </c>
       <c r="U43" t="n">
-        <v>1427.395029915243</v>
+        <v>1234.273005039329</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.509284854765</v>
+        <v>960.387259978851</v>
       </c>
       <c r="W43" t="n">
-        <v>874.4396203636393</v>
+        <v>960.387259978851</v>
       </c>
       <c r="X43" t="n">
-        <v>874.4396203636393</v>
+        <v>722.0433978385345</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.703921752404</v>
+        <v>497.3076992272992</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.705279014547</v>
+        <v>445.444033362781</v>
       </c>
       <c r="C44" t="n">
-        <v>1255.580688327817</v>
+        <v>445.444033362781</v>
       </c>
       <c r="D44" t="n">
-        <v>862.6802206023344</v>
+        <v>445.444033362781</v>
       </c>
       <c r="E44" t="n">
-        <v>862.6802206023344</v>
+        <v>445.444033362781</v>
       </c>
       <c r="F44" t="n">
-        <v>441.6498085560219</v>
+        <v>445.444033362781</v>
       </c>
       <c r="G44" t="n">
-        <v>35.04977630223196</v>
+        <v>38.84400110899105</v>
       </c>
       <c r="H44" t="n">
-        <v>35.04977630223196</v>
+        <v>38.84400110899105</v>
       </c>
       <c r="I44" t="n">
         <v>35.04977630223196</v>
@@ -7678,22 +7678,22 @@
         <v>1665.705279014547</v>
       </c>
       <c r="T44" t="n">
-        <v>1665.705279014547</v>
+        <v>1452.815217449567</v>
       </c>
       <c r="U44" t="n">
-        <v>1665.705279014547</v>
+        <v>1195.924985857348</v>
       </c>
       <c r="V44" t="n">
-        <v>1665.705279014547</v>
+        <v>846.0874311938285</v>
       </c>
       <c r="W44" t="n">
-        <v>1665.705279014547</v>
+        <v>846.0874311938285</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.705279014547</v>
+        <v>445.444033362781</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.705279014547</v>
+        <v>445.444033362781</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.8795000739443</v>
+        <v>680.9957208097385</v>
       </c>
       <c r="C45" t="n">
         <v>547.0006495586841</v>
@@ -7724,28 +7724,28 @@
         <v>35.04977630223196</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13964940227881</v>
+        <v>35.04977630223196</v>
       </c>
       <c r="J45" t="n">
-        <v>107.7267972274735</v>
+        <v>333.3053281020599</v>
       </c>
       <c r="K45" t="n">
-        <v>232.6776313873097</v>
+        <v>458.2561622618961</v>
       </c>
       <c r="L45" t="n">
-        <v>419.4500769737226</v>
+        <v>645.028607848309</v>
       </c>
       <c r="M45" t="n">
-        <v>775.557421738532</v>
+        <v>870.8227739702894</v>
       </c>
       <c r="N45" t="n">
-        <v>1013.163188757128</v>
+        <v>1108.428540988886</v>
       </c>
       <c r="O45" t="n">
-        <v>1221.527028469189</v>
+        <v>1316.792380700946</v>
       </c>
       <c r="P45" t="n">
-        <v>1655.268010209309</v>
+        <v>1476.192839921946</v>
       </c>
       <c r="Q45" t="n">
         <v>1741.605721309941</v>
@@ -7766,13 +7766,13 @@
         <v>1099.910474206808</v>
       </c>
       <c r="W45" t="n">
-        <v>1099.910474206808</v>
+        <v>980.7007130814951</v>
       </c>
       <c r="X45" t="n">
-        <v>923.5844923457009</v>
+        <v>980.7007130814951</v>
       </c>
       <c r="Y45" t="n">
-        <v>764.182532709531</v>
+        <v>821.2987534453251</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.8969223824062</v>
+        <v>652.0829610488398</v>
       </c>
       <c r="C46" t="n">
-        <v>394.8035499441227</v>
+        <v>652.0829610488398</v>
       </c>
       <c r="D46" t="n">
-        <v>394.8035499441227</v>
+        <v>492.5883163717498</v>
       </c>
       <c r="E46" t="n">
-        <v>394.8035499441227</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="F46" t="n">
-        <v>394.8035499441227</v>
+        <v>430.1019628451357</v>
       </c>
       <c r="G46" t="n">
-        <v>228.5078193834046</v>
+        <v>263.8062322844177</v>
       </c>
       <c r="H46" t="n">
-        <v>87.38816402919139</v>
+        <v>122.6865769302045</v>
       </c>
       <c r="I46" t="n">
         <v>35.04977630223196</v>
       </c>
       <c r="J46" t="n">
-        <v>115.2836835121643</v>
+        <v>50.28231988082791</v>
       </c>
       <c r="K46" t="n">
-        <v>172.2628194159949</v>
+        <v>107.2614557846585</v>
       </c>
       <c r="L46" t="n">
-        <v>571.2674554474276</v>
+        <v>427.3696561384554</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.008437187548</v>
+        <v>861.1106378785759</v>
       </c>
       <c r="N46" t="n">
-        <v>1429.02914139315</v>
+        <v>1285.131342084178</v>
       </c>
       <c r="O46" t="n">
-        <v>1550.669671663194</v>
+        <v>1676.943631869031</v>
       </c>
       <c r="P46" t="n">
-        <v>1608.611787399959</v>
+        <v>1734.885747605796</v>
       </c>
       <c r="Q46" t="n">
         <v>1752.488815111598</v>
@@ -7842,16 +7842,16 @@
         <v>1064.518366054119</v>
       </c>
       <c r="V46" t="n">
-        <v>790.6326209936415</v>
+        <v>1064.518366054119</v>
       </c>
       <c r="W46" t="n">
-        <v>790.6326209936415</v>
+        <v>1064.518366054119</v>
       </c>
       <c r="X46" t="n">
-        <v>790.6326209936415</v>
+        <v>1064.518366054119</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.8969223824062</v>
+        <v>839.7826674428842</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N8" t="n">
         <v>24.70558680915735</v>
@@ -8470,7 +8470,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q8" t="n">
         <v>48.7545716309821</v>
@@ -8540,7 +8540,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>73.75311182862239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>73.75311182862202</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>346.2362451311341</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>238.5639633748533</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.3764724844485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>57.8287176994566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>92.02571091957827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>350.9123945853421</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>2.484960793033352</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>238.5639633748533</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>73.75311182862234</v>
       </c>
       <c r="L18" t="n">
-        <v>210.6247337782087</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>198.11637850659</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>237.4572480377652</v>
       </c>
       <c r="M19" t="n">
         <v>346.2362451311341</v>
       </c>
       <c r="N19" t="n">
-        <v>309.3126197291466</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>162.6114113003206</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9123945853421</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.82871769945665</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377652</v>
       </c>
       <c r="M22" t="n">
         <v>346.2362451311341</v>
       </c>
       <c r="N22" t="n">
-        <v>102.055503161473</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>162.6114113003206</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>162.6114113003208</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>291.6566658172165</v>
+        <v>237.4572480377652</v>
       </c>
       <c r="M25" t="n">
         <v>346.2362451311341</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>162.6114113003202</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>73.75311182862271</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>29.09341613300303</v>
+        <v>237.4572480377652</v>
       </c>
       <c r="M28" t="n">
-        <v>346.236245131134</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10190,16 +10190,16 @@
         <v>1.492859343081363</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>216.9664228725833</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>210.0472885031718</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.8840103912763</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>346.2362451311341</v>
+        <v>320.1606815798906</v>
       </c>
       <c r="N31" t="n">
-        <v>171.2742015980661</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081363</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>162.6114113003207</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>92.02571091957816</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.20013147009182</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>346.2362451311341</v>
+        <v>346.236245131134</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>154.143351063879</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>162.6114113003207</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>44.24985022243835</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>266.542875759785</v>
+        <v>346.2362451311341</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.492859343081363</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>228.8973328691651</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>198.1163785065899</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>73.75311182862248</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>171.7993049758091</v>
+        <v>44.24985022243835</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>1.492859343081363</v>
       </c>
       <c r="J42" t="n">
-        <v>76.10131679041299</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.912394585342</v>
+        <v>92.02571091957839</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>73.33547794445803</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377649</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>346.236245131134</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>1.492859343081363</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>131.6294733765949</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.1116389082034</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>180.8840103912765</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>237.4572480377649</v>
       </c>
       <c r="M46" t="n">
         <v>346.236245131134</v>
@@ -11469,13 +11469,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>45.35656555952671</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.258746329649796</v>
+        <v>4.258746329649769</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.534031931252</v>
+        <v>400.6088691451248</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.403448307501</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.9907745709266</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>100.6234882152969</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23436,7 +23436,7 @@
         <v>139.7084588006711</v>
       </c>
       <c r="I13" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.62494977855144</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>105.2279880352062</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>399.8388722192147</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.534031931252</v>
+        <v>341.4286174118083</v>
       </c>
       <c r="H14" t="n">
         <v>286.2214126980871</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.91570073608037</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>109.8379550696627</v>
+        <v>73.80512708020103</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,7 +23661,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,10 +23670,10 @@
         <v>164.6327732551108</v>
       </c>
       <c r="H16" t="n">
-        <v>87.03674860555815</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S16" t="n">
         <v>168.0570925953575</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>80.98815763641349</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>253.8054050643366</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.259309774520659</v>
+        <v>4.259309774520631</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.91570073608035</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>265.7508641428412</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.34275867074669</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>13.19063279589346</v>
       </c>
       <c r="U18" t="n">
         <v>195.3031364387235</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>117.748384096446</v>
+        <v>74.45283072286506</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.76043262169276</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>29.06959599115714</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I20" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.7611609493298</v>
+        <v>210.7611609493297</v>
       </c>
       <c r="U20" t="n">
         <v>254.3213292762975</v>
       </c>
       <c r="V20" t="n">
-        <v>161.8468965790724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>56.54505852843569</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>148.3580072618751</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>46.39056651329759</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.7084588006711</v>
       </c>
       <c r="I22" t="n">
         <v>86.76043262169276</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9242330327962</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.0570925953575</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>25.52067356442666</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>280.5902076878153</v>
+        <v>29.06959599115714</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I23" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.571091779977195</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>153.2045223101729</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>40.48772624255434</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>103.0564189013357</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S25" t="n">
         <v>168.0570925953575</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.1150376599508</v>
       </c>
       <c r="U25" t="n">
-        <v>234.8291623066162</v>
+        <v>279.9186143115952</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.534031931252</v>
+        <v>270.7099508723902</v>
       </c>
       <c r="H26" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I26" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>205.9011228411063</v>
+        <v>210.7611609493298</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7928835793171</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>47.12482532735216</v>
+        <v>23.86746805971308</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.97048700994887</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.27268329062848</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.00297996830234</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.534031931252</v>
+        <v>26.26887841151847</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>4.259309774520659</v>
@@ -24733,19 +24733,19 @@
         <v>85.91570073608037</v>
       </c>
       <c r="T29" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3213292762975</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>87.15233500910136</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>30.19789099160947</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>47.1248253273522</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.673689800251</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H31" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>168.0570925953575</v>
       </c>
       <c r="T31" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>139.8255791583218</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24925,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>10.49155351757838</v>
       </c>
       <c r="F32" t="n">
-        <v>202.4601102446363</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.534031931252</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2214126980871</v>
       </c>
       <c r="I32" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.7611609493298</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>72.34275867074706</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>59.15212587485323</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>33.93104719212155</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3031364387235</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6327732551108</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.0570925953575</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9186143115952</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.05110501312205</v>
+        <v>87.0367486055581</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>384.0106610086046</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,19 +25162,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>252.3696461292637</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.534031931252</v>
       </c>
       <c r="H35" t="n">
         <v>286.2214126980871</v>
       </c>
       <c r="I35" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.91570073608037</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>55.28924692444438</v>
       </c>
       <c r="H36" t="n">
         <v>59.15212587485323</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.2045223101729</v>
       </c>
       <c r="U36" t="n">
-        <v>100.6234882152965</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>49.71342998557286</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.76043262169276</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.1150376599508</v>
+        <v>197.2382728309031</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>367.5645293969283</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>311.801695840634</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2214126980871</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.259309774520659</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>254.3213292762975</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>27.1204935516061</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.97048700994887</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>181.6754080995216</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.97471622622078</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6327732551108</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>86.76043262169276</v>
@@ -25599,7 +25599,7 @@
         <v>41.9242330327962</v>
       </c>
       <c r="S40" t="n">
-        <v>168.0570925953575</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.1150376599508</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>141.9851715757175</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>233.7178840792067</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>402.534031931252</v>
       </c>
       <c r="H41" t="n">
-        <v>278.4754663644337</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>4.259309774520659</v>
@@ -25690,10 +25690,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>93.08317306697455</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>56.5450585284361</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,10 +25769,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>57.5013251756311</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6327732551108</v>
+        <v>4.605586590284531</v>
       </c>
       <c r="H43" t="n">
-        <v>139.7084588006711</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>86.76043262169276</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.9242330327962</v>
       </c>
       <c r="S43" t="n">
         <v>168.0570925953575</v>
       </c>
       <c r="T43" t="n">
-        <v>233.1150376599508</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>11.44782755964241</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>286.2214126980871</v>
       </c>
       <c r="I44" t="n">
-        <v>4.259309774520659</v>
+        <v>0.5030272158291607</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.7611609493298</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3213292762975</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>56.54505852843617</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>93.08317306697455</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>97.44021698901577</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>34.94542877200293</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>380297.036993377</v>
+        <v>380297.0369933771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380297.036993377</v>
+        <v>380297.0369933771</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>380297.0369933772</v>
+        <v>380297.0369933771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>380297.0369933771</v>
+        <v>380297.0369933772</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>380297.036993377</v>
+        <v>380297.0369933771</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380297.0369933771</v>
+        <v>380297.036993377</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>502207.5158555078</v>
       </c>
       <c r="C2" t="n">
-        <v>502207.5158555079</v>
+        <v>502207.5158555078</v>
       </c>
       <c r="D2" t="n">
         <v>502231.0971625372</v>
       </c>
       <c r="E2" t="n">
+        <v>281361.873182765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>281361.8731827652</v>
+      </c>
+      <c r="G2" t="n">
         <v>281361.8731827651</v>
       </c>
-      <c r="F2" t="n">
-        <v>281361.8731827651</v>
-      </c>
-      <c r="G2" t="n">
-        <v>281361.8731827653</v>
-      </c>
       <c r="H2" t="n">
-        <v>281361.8731827651</v>
+        <v>281361.8731827652</v>
       </c>
       <c r="I2" t="n">
         <v>281361.8731827651</v>
       </c>
       <c r="J2" t="n">
-        <v>281361.8731827651</v>
+        <v>281361.8731827652</v>
       </c>
       <c r="K2" t="n">
-        <v>281361.8731827652</v>
+        <v>281361.873182765</v>
       </c>
       <c r="L2" t="n">
-        <v>281361.8731827651</v>
+        <v>281361.873182765</v>
       </c>
       <c r="M2" t="n">
         <v>281361.8731827651</v>
@@ -26352,7 +26352,7 @@
         <v>281361.8731827651</v>
       </c>
       <c r="O2" t="n">
-        <v>281361.8731827651</v>
+        <v>281361.8731827652</v>
       </c>
       <c r="P2" t="n">
         <v>281361.8731827651</v>
@@ -26429,10 +26429,10 @@
         <v>26705.56648337127</v>
       </c>
       <c r="F4" t="n">
-        <v>26705.56648337126</v>
+        <v>26705.56648337128</v>
       </c>
       <c r="G4" t="n">
-        <v>26705.56648337128</v>
+        <v>26705.56648337127</v>
       </c>
       <c r="H4" t="n">
         <v>26705.56648337128</v>
@@ -26441,25 +26441,25 @@
         <v>26705.56648337128</v>
       </c>
       <c r="J4" t="n">
+        <v>26705.56648337129</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26705.56648337125</v>
+      </c>
+      <c r="L4" t="n">
         <v>26705.56648337126</v>
       </c>
-      <c r="K4" t="n">
-        <v>26705.56648337128</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26705.56648337128</v>
-      </c>
       <c r="M4" t="n">
-        <v>26705.56648337128</v>
+        <v>26705.56648337127</v>
       </c>
       <c r="N4" t="n">
         <v>26705.56648337127</v>
       </c>
       <c r="O4" t="n">
-        <v>26705.56648337127</v>
+        <v>26705.56648337126</v>
       </c>
       <c r="P4" t="n">
-        <v>26705.56648337127</v>
+        <v>26705.56648337126</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>35700.4729566144</v>
       </c>
       <c r="E5" t="n">
+        <v>38063.39795022209</v>
+      </c>
+      <c r="F5" t="n">
         <v>38063.3979502221</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38063.39795022209</v>
       </c>
       <c r="G5" t="n">
         <v>38063.3979502221</v>
@@ -26493,13 +26493,13 @@
         <v>38063.3979502221</v>
       </c>
       <c r="J5" t="n">
+        <v>38063.3979502221</v>
+      </c>
+      <c r="K5" t="n">
         <v>38063.39795022209</v>
       </c>
-      <c r="K5" t="n">
-        <v>38063.3979502221</v>
-      </c>
       <c r="L5" t="n">
-        <v>38063.3979502221</v>
+        <v>38063.39795022209</v>
       </c>
       <c r="M5" t="n">
         <v>38063.3979502221</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100731.8163849577</v>
+        <v>100723.0166993283</v>
       </c>
       <c r="C6" t="n">
-        <v>100731.8163849578</v>
+        <v>100723.0166993283</v>
       </c>
       <c r="D6" t="n">
-        <v>49255.13623697619</v>
+        <v>49246.41262007909</v>
       </c>
       <c r="E6" t="n">
-        <v>-258898.8721621431</v>
+        <v>-259620.0771467168</v>
       </c>
       <c r="F6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645981</v>
       </c>
       <c r="G6" t="n">
-        <v>216592.9087491719</v>
+        <v>215871.7037645981</v>
       </c>
       <c r="H6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645981</v>
       </c>
       <c r="I6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645981</v>
       </c>
       <c r="J6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645981</v>
       </c>
       <c r="K6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645979</v>
       </c>
       <c r="L6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.703764598</v>
       </c>
       <c r="M6" t="n">
-        <v>107411.103078904</v>
+        <v>106689.8980943303</v>
       </c>
       <c r="N6" t="n">
-        <v>216592.9087491717</v>
+        <v>215871.703764598</v>
       </c>
       <c r="O6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645982</v>
       </c>
       <c r="P6" t="n">
-        <v>216592.9087491718</v>
+        <v>215871.7037645981</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>524.1086220424681</v>
       </c>
       <c r="G3" t="n">
-        <v>524.1086220424681</v>
+        <v>524.1086220424683</v>
       </c>
       <c r="H3" t="n">
-        <v>524.1086220424681</v>
+        <v>524.1086220424683</v>
       </c>
       <c r="I3" t="n">
         <v>524.1086220424681</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>438.1222037778994</v>
+      </c>
+      <c r="F4" t="n">
         <v>438.1222037778995</v>
-      </c>
-      <c r="F4" t="n">
-        <v>438.1222037778994</v>
       </c>
       <c r="G4" t="n">
         <v>438.1222037778996</v>
       </c>
       <c r="H4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778996</v>
       </c>
       <c r="I4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778996</v>
       </c>
       <c r="J4" t="n">
+        <v>438.1222037778996</v>
+      </c>
+      <c r="K4" t="n">
         <v>438.1222037778994</v>
       </c>
-      <c r="K4" t="n">
-        <v>438.1222037778995</v>
-      </c>
       <c r="L4" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="M4" t="n">
         <v>438.1222037778995</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J8" t="n">
         <v>32.44340991221275</v>
@@ -31530,10 +31530,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M8" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N8" t="n">
         <v>68.20670394746197</v>
@@ -31542,7 +31542,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q8" t="n">
         <v>41.27923276816995</v>
@@ -31557,7 +31557,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H9" t="n">
         <v>1.975275337746631</v>
@@ -31612,7 +31612,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -31633,7 +31633,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U9" t="n">
         <v>0.01345555407184354</v>
@@ -31697,16 +31697,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P10" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S10" t="n">
         <v>2.98819180164672</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.106969334844091</v>
+        <v>2.106969334844092</v>
       </c>
       <c r="H17" t="n">
         <v>21.57799970047206</v>
       </c>
       <c r="I17" t="n">
-        <v>81.22893528157691</v>
+        <v>81.22893528157694</v>
       </c>
       <c r="J17" t="n">
         <v>178.8263885832239</v>
       </c>
       <c r="K17" t="n">
-        <v>268.0144005271743</v>
+        <v>268.0144005271744</v>
       </c>
       <c r="L17" t="n">
         <v>332.4955633084093</v>
       </c>
       <c r="M17" t="n">
-        <v>369.9653792169428</v>
+        <v>369.9653792169429</v>
       </c>
       <c r="N17" t="n">
-        <v>375.9518058395686</v>
+        <v>375.9518058395687</v>
       </c>
       <c r="O17" t="n">
-        <v>355.0006295162127</v>
+        <v>355.0006295162128</v>
       </c>
       <c r="P17" t="n">
-        <v>302.9848240622491</v>
+        <v>302.9848240622492</v>
       </c>
       <c r="Q17" t="n">
-        <v>227.528984758145</v>
+        <v>227.5289847581451</v>
       </c>
       <c r="R17" t="n">
         <v>132.3519124799003</v>
       </c>
       <c r="S17" t="n">
-        <v>48.01256371775978</v>
+        <v>48.01256371775979</v>
       </c>
       <c r="T17" t="n">
-        <v>9.223258263280014</v>
+        <v>9.223258263280018</v>
       </c>
       <c r="U17" t="n">
         <v>0.1685575467875273</v>
@@ -32314,40 +32314,40 @@
         <v>38.81370455691864</v>
       </c>
       <c r="J18" t="n">
-        <v>106.5077719567623</v>
+        <v>106.5077719567624</v>
       </c>
       <c r="K18" t="n">
-        <v>182.0387465824297</v>
+        <v>182.0387465824298</v>
       </c>
       <c r="L18" t="n">
         <v>244.7735597567207</v>
       </c>
       <c r="M18" t="n">
-        <v>285.6391990131451</v>
+        <v>285.6391990131452</v>
       </c>
       <c r="N18" t="n">
-        <v>293.1992186650596</v>
+        <v>293.1992186650597</v>
       </c>
       <c r="O18" t="n">
-        <v>268.2200039616771</v>
+        <v>268.2200039616772</v>
       </c>
       <c r="P18" t="n">
-        <v>215.2701998724998</v>
+        <v>215.2701998724999</v>
       </c>
       <c r="Q18" t="n">
         <v>143.9024276973962</v>
       </c>
       <c r="R18" t="n">
-        <v>69.99322314748285</v>
+        <v>69.99322314748287</v>
       </c>
       <c r="S18" t="n">
         <v>20.93962277688539</v>
       </c>
       <c r="T18" t="n">
-        <v>4.543922864688944</v>
+        <v>4.543922864688945</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07416631443997194</v>
+        <v>0.07416631443997196</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9451139086011719</v>
+        <v>0.9451139086011722</v>
       </c>
       <c r="H19" t="n">
-        <v>8.402921841926789</v>
+        <v>8.402921841926791</v>
       </c>
       <c r="I19" t="n">
-        <v>28.42215281502434</v>
+        <v>28.42215281502435</v>
       </c>
       <c r="J19" t="n">
-        <v>66.81955333810285</v>
+        <v>66.81955333810286</v>
       </c>
       <c r="K19" t="n">
         <v>109.8050522902089</v>
       </c>
       <c r="L19" t="n">
-        <v>140.5126623751233</v>
+        <v>140.5126623751234</v>
       </c>
       <c r="M19" t="n">
         <v>148.1509011455455</v>
       </c>
       <c r="N19" t="n">
-        <v>144.6282038498503</v>
+        <v>144.6282038498504</v>
       </c>
       <c r="O19" t="n">
         <v>133.5875550084639</v>
@@ -32414,10 +32414,10 @@
         <v>114.3072312729999</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.14040192841269</v>
+        <v>79.1404019284127</v>
       </c>
       <c r="R19" t="n">
-        <v>42.49575810855814</v>
+        <v>42.49575810855815</v>
       </c>
       <c r="S19" t="n">
         <v>16.47075784353133</v>
@@ -32426,7 +32426,7 @@
         <v>4.038213973114098</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05155166774188217</v>
+        <v>0.05155166774188218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.106969334844091</v>
+        <v>2.106969334844092</v>
       </c>
       <c r="H20" t="n">
         <v>21.57799970047206</v>
       </c>
       <c r="I20" t="n">
-        <v>81.22893528157691</v>
+        <v>81.22893528157694</v>
       </c>
       <c r="J20" t="n">
         <v>178.8263885832239</v>
       </c>
       <c r="K20" t="n">
-        <v>268.0144005271743</v>
+        <v>268.0144005271744</v>
       </c>
       <c r="L20" t="n">
         <v>332.4955633084093</v>
       </c>
       <c r="M20" t="n">
-        <v>369.9653792169428</v>
+        <v>369.9653792169429</v>
       </c>
       <c r="N20" t="n">
-        <v>375.9518058395686</v>
+        <v>375.9518058395687</v>
       </c>
       <c r="O20" t="n">
-        <v>355.0006295162127</v>
+        <v>355.0006295162128</v>
       </c>
       <c r="P20" t="n">
-        <v>302.9848240622491</v>
+        <v>302.9848240622492</v>
       </c>
       <c r="Q20" t="n">
-        <v>227.528984758145</v>
+        <v>227.5289847581451</v>
       </c>
       <c r="R20" t="n">
         <v>132.3519124799003</v>
       </c>
       <c r="S20" t="n">
-        <v>48.01256371775978</v>
+        <v>48.01256371775979</v>
       </c>
       <c r="T20" t="n">
-        <v>9.223258263280014</v>
+        <v>9.223258263280018</v>
       </c>
       <c r="U20" t="n">
         <v>0.1685575467875273</v>
@@ -32551,40 +32551,40 @@
         <v>38.81370455691864</v>
       </c>
       <c r="J21" t="n">
-        <v>106.5077719567623</v>
+        <v>106.5077719567624</v>
       </c>
       <c r="K21" t="n">
-        <v>182.0387465824297</v>
+        <v>182.0387465824298</v>
       </c>
       <c r="L21" t="n">
         <v>244.7735597567207</v>
       </c>
       <c r="M21" t="n">
-        <v>285.6391990131451</v>
+        <v>285.6391990131452</v>
       </c>
       <c r="N21" t="n">
-        <v>293.1992186650596</v>
+        <v>293.1992186650597</v>
       </c>
       <c r="O21" t="n">
-        <v>268.2200039616771</v>
+        <v>268.2200039616772</v>
       </c>
       <c r="P21" t="n">
-        <v>215.2701998724998</v>
+        <v>215.2701998724999</v>
       </c>
       <c r="Q21" t="n">
         <v>143.9024276973962</v>
       </c>
       <c r="R21" t="n">
-        <v>69.99322314748285</v>
+        <v>69.99322314748287</v>
       </c>
       <c r="S21" t="n">
         <v>20.93962277688539</v>
       </c>
       <c r="T21" t="n">
-        <v>4.543922864688944</v>
+        <v>4.543922864688945</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07416631443997194</v>
+        <v>0.07416631443997196</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9451139086011719</v>
+        <v>0.9451139086011722</v>
       </c>
       <c r="H22" t="n">
-        <v>8.402921841926789</v>
+        <v>8.402921841926791</v>
       </c>
       <c r="I22" t="n">
-        <v>28.42215281502434</v>
+        <v>28.42215281502435</v>
       </c>
       <c r="J22" t="n">
-        <v>66.81955333810285</v>
+        <v>66.81955333810286</v>
       </c>
       <c r="K22" t="n">
         <v>109.8050522902089</v>
       </c>
       <c r="L22" t="n">
-        <v>140.5126623751233</v>
+        <v>140.5126623751234</v>
       </c>
       <c r="M22" t="n">
         <v>148.1509011455455</v>
       </c>
       <c r="N22" t="n">
-        <v>144.6282038498503</v>
+        <v>144.6282038498504</v>
       </c>
       <c r="O22" t="n">
         <v>133.5875550084639</v>
@@ -32651,10 +32651,10 @@
         <v>114.3072312729999</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.14040192841269</v>
+        <v>79.1404019284127</v>
       </c>
       <c r="R22" t="n">
-        <v>42.49575810855814</v>
+        <v>42.49575810855815</v>
       </c>
       <c r="S22" t="n">
         <v>16.47075784353133</v>
@@ -32663,7 +32663,7 @@
         <v>4.038213973114098</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05155166774188217</v>
+        <v>0.05155166774188218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>178.8263885832239</v>
       </c>
       <c r="K41" t="n">
-        <v>268.014400527174</v>
+        <v>268.0144005271743</v>
       </c>
       <c r="L41" t="n">
         <v>332.4955633084093</v>
@@ -35506,10 +35506,10 @@
         <v>210.4685249616771</v>
       </c>
       <c r="P12" t="n">
-        <v>234.7636766983184</v>
+        <v>161.0105648696961</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211795</v>
       </c>
       <c r="R12" t="n">
         <v>99.85132351377567</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.38640765514743</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K13" t="n">
-        <v>57.55468273114204</v>
+        <v>265.9185146359038</v>
       </c>
       <c r="L13" t="n">
         <v>403.034985890336</v>
       </c>
       <c r="M13" t="n">
-        <v>438.1222037778995</v>
+        <v>91.88595864676546</v>
       </c>
       <c r="N13" t="n">
-        <v>428.3037416218203</v>
+        <v>92.91555834143089</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0766203103209</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P13" t="n">
-        <v>58.5273896330951</v>
+        <v>322.0602012221033</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.78087626848712</v>
+        <v>82.15734875293562</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J15" t="n">
-        <v>301.2682341412404</v>
+        <v>112.9672508562189</v>
       </c>
       <c r="K15" t="n">
         <v>126.2129637978143</v>
       </c>
       <c r="L15" t="n">
-        <v>280.6847468654499</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M15" t="n">
         <v>228.0749152747277</v>
@@ -35746,10 +35746,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.20980919255746</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="R15" t="n">
-        <v>99.85132351377567</v>
+        <v>10.99302404207744</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>15.38640765514743</v>
       </c>
       <c r="K16" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L16" t="n">
         <v>403.034985890336</v>
       </c>
       <c r="M16" t="n">
-        <v>94.37091943979881</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N16" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O16" t="n">
-        <v>395.7699896816701</v>
+        <v>316.0766203103209</v>
       </c>
       <c r="P16" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.5027972499159</v>
+        <v>105.502797249916</v>
       </c>
       <c r="K17" t="n">
         <v>178.8780108539572</v>
@@ -35892,22 +35892,22 @@
         <v>237.0101652455645</v>
       </c>
       <c r="M17" t="n">
-        <v>276.6751547598974</v>
+        <v>276.6751547598975</v>
       </c>
       <c r="N17" t="n">
-        <v>283.0395150829493</v>
+        <v>283.0395150829494</v>
       </c>
       <c r="O17" t="n">
-        <v>261.8108538904296</v>
+        <v>261.8108538904297</v>
       </c>
       <c r="P17" t="n">
         <v>209.335460781365</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.495180358993</v>
+        <v>137.4951803589931</v>
       </c>
       <c r="R17" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517679</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.27259909095641</v>
+        <v>18.27259909095642</v>
       </c>
       <c r="J18" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K18" t="n">
-        <v>126.2129637978143</v>
+        <v>199.9660756264367</v>
       </c>
       <c r="L18" t="n">
-        <v>399.2837697240803</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M18" t="n">
         <v>228.0749152747277</v>
       </c>
       <c r="N18" t="n">
-        <v>438.1222037778996</v>
+        <v>240.0058252713097</v>
       </c>
       <c r="O18" t="n">
-        <v>210.4685249616771</v>
+        <v>210.4685249616772</v>
       </c>
       <c r="P18" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.20980919255746</v>
+        <v>87.20980919255749</v>
       </c>
       <c r="R18" t="n">
-        <v>10.99302404207744</v>
+        <v>99.8513235137757</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.38640765514743</v>
+        <v>15.38640765514744</v>
       </c>
       <c r="K19" t="n">
-        <v>57.55468273114204</v>
+        <v>57.55468273114207</v>
       </c>
       <c r="L19" t="n">
-        <v>85.88436848122183</v>
+        <v>323.3416165189871</v>
       </c>
       <c r="M19" t="n">
         <v>438.1222037778996</v>
       </c>
       <c r="N19" t="n">
-        <v>402.2281780705775</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O19" t="n">
-        <v>395.7699896816701</v>
+        <v>395.7699896816702</v>
       </c>
       <c r="P19" t="n">
-        <v>322.0602012221033</v>
+        <v>58.52738963309512</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.78087626848712</v>
+        <v>17.78087626848713</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.5027972499159</v>
+        <v>105.502797249916</v>
       </c>
       <c r="K20" t="n">
         <v>178.8780108539572</v>
@@ -36129,22 +36129,22 @@
         <v>237.0101652455645</v>
       </c>
       <c r="M20" t="n">
-        <v>276.6751547598974</v>
+        <v>276.6751547598975</v>
       </c>
       <c r="N20" t="n">
-        <v>283.0395150829493</v>
+        <v>283.0395150829494</v>
       </c>
       <c r="O20" t="n">
-        <v>261.8108538904296</v>
+        <v>261.8108538904297</v>
       </c>
       <c r="P20" t="n">
         <v>209.335460781365</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.495180358993</v>
+        <v>137.4951803589931</v>
       </c>
       <c r="R20" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517679</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.27259909095641</v>
+        <v>18.27259909095642</v>
       </c>
       <c r="J21" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K21" t="n">
-        <v>126.2129637978143</v>
+        <v>288.824375098135</v>
       </c>
       <c r="L21" t="n">
         <v>188.6590359458716</v>
@@ -36211,19 +36211,19 @@
         <v>228.0749152747277</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0058252713096</v>
+        <v>240.0058252713097</v>
       </c>
       <c r="O21" t="n">
-        <v>210.4685249616771</v>
+        <v>210.4685249616772</v>
       </c>
       <c r="P21" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q21" t="n">
-        <v>438.1222037778995</v>
+        <v>87.20980919255749</v>
       </c>
       <c r="R21" t="n">
-        <v>68.8217417415341</v>
+        <v>10.99302404207746</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.38640765514743</v>
+        <v>15.38640765514744</v>
       </c>
       <c r="K22" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114207</v>
       </c>
       <c r="L22" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189871</v>
       </c>
       <c r="M22" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778996</v>
       </c>
       <c r="N22" t="n">
-        <v>194.9710615029039</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O22" t="n">
-        <v>77.51265693546756</v>
+        <v>395.7699896816702</v>
       </c>
       <c r="P22" t="n">
-        <v>322.0602012221033</v>
+        <v>58.52738963309512</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.78087626848712</v>
+        <v>17.78087626848713</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R23" t="n">
-        <v>45.03976966517676</v>
+        <v>45.03976966517725</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>240.0058252713096</v>
       </c>
       <c r="O24" t="n">
-        <v>373.0799362619977</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P24" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.20980919255746</v>
+        <v>249.8212204928783</v>
       </c>
       <c r="R24" t="n">
         <v>10.99302404207744</v>
@@ -36518,25 +36518,25 @@
         <v>15.38640765514743</v>
       </c>
       <c r="K25" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L25" t="n">
-        <v>377.5410342984384</v>
+        <v>323.3416165189871</v>
       </c>
       <c r="M25" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778996</v>
       </c>
       <c r="N25" t="n">
-        <v>92.91555834143089</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O25" t="n">
-        <v>77.51265693546756</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P25" t="n">
-        <v>322.0602012221033</v>
+        <v>58.5273896330951</v>
       </c>
       <c r="Q25" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>240.0058252713096</v>
       </c>
       <c r="O27" t="n">
-        <v>373.0799362619973</v>
+        <v>210.4685249616771</v>
       </c>
       <c r="P27" t="n">
         <v>161.0105648696961</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211802</v>
       </c>
       <c r="R27" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>15.38640765514743</v>
       </c>
       <c r="K28" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L28" t="n">
-        <v>114.9777846142249</v>
+        <v>323.3416165189871</v>
       </c>
       <c r="M28" t="n">
-        <v>438.1222037778994</v>
+        <v>438.1222037778996</v>
       </c>
       <c r="N28" t="n">
         <v>428.3037416218203</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1793866703976</v>
+        <v>126.2129637978143</v>
       </c>
       <c r="L30" t="n">
         <v>188.6590359458716</v>
       </c>
       <c r="M30" t="n">
-        <v>438.1222037778995</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N30" t="n">
         <v>240.0058252713096</v>
@@ -36931,7 +36931,7 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.20980919255746</v>
+        <v>268.0938195838337</v>
       </c>
       <c r="R30" t="n">
         <v>10.99302404207744</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K31" t="n">
-        <v>265.9185146359038</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L31" t="n">
         <v>85.88436848122183</v>
       </c>
       <c r="M31" t="n">
-        <v>438.1222037778995</v>
+        <v>412.0466402266561</v>
       </c>
       <c r="N31" t="n">
-        <v>264.189759939497</v>
+        <v>428.3037416218203</v>
       </c>
       <c r="O31" t="n">
         <v>395.7699896816701</v>
       </c>
       <c r="P31" t="n">
-        <v>58.5273896330951</v>
+        <v>322.0602012221033</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>105.5027972499159</v>
+        <v>105.5027972499156</v>
       </c>
       <c r="K32" t="n">
         <v>178.8780108539572</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>18.27259909095641</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>301.2682341412404</v>
@@ -37159,7 +37159,7 @@
         <v>228.0749152747277</v>
       </c>
       <c r="N33" t="n">
-        <v>402.6172365716303</v>
+        <v>240.0058252713096</v>
       </c>
       <c r="O33" t="n">
         <v>210.4685249616771</v>
@@ -37168,10 +37168,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.20980919255746</v>
+        <v>179.2355201121356</v>
       </c>
       <c r="R33" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.58653912523925</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K34" t="n">
         <v>265.9185146359038</v>
       </c>
       <c r="L34" t="n">
-        <v>403.034985890336</v>
+        <v>85.88436848122183</v>
       </c>
       <c r="M34" t="n">
-        <v>438.1222037778995</v>
+        <v>438.1222037778994</v>
       </c>
       <c r="N34" t="n">
         <v>428.3037416218203</v>
@@ -37244,10 +37244,10 @@
         <v>77.51265693546756</v>
       </c>
       <c r="P34" t="n">
-        <v>58.5273896330951</v>
+        <v>212.6707406969741</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.78087626848712</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>126.2129637978143</v>
       </c>
       <c r="L36" t="n">
-        <v>351.2704472461923</v>
+        <v>188.6590359458716</v>
       </c>
       <c r="M36" t="n">
         <v>228.0749152747277</v>
@@ -37405,10 +37405,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R36" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.38640765514743</v>
+        <v>81.04435071710338</v>
       </c>
       <c r="K37" t="n">
-        <v>57.55468273114204</v>
+        <v>101.8045329535804</v>
       </c>
       <c r="L37" t="n">
-        <v>403.034985890336</v>
+        <v>85.88436848122183</v>
       </c>
       <c r="M37" t="n">
-        <v>358.4288344065504</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N37" t="n">
         <v>428.3037416218203</v>
@@ -37484,7 +37484,7 @@
         <v>58.5273896330951</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.78087626848712</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>261.8108538904296</v>
       </c>
       <c r="P38" t="n">
-        <v>209.335460781365</v>
+        <v>209.3354607813652</v>
       </c>
       <c r="Q38" t="n">
         <v>137.495180358993</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.27259909095641</v>
       </c>
       <c r="J39" t="n">
-        <v>284.0358660259274</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K39" t="n">
         <v>126.2129637978143</v>
@@ -37633,7 +37633,7 @@
         <v>228.0749152747277</v>
       </c>
       <c r="N39" t="n">
-        <v>438.1222037778995</v>
+        <v>240.0058252713096</v>
       </c>
       <c r="O39" t="n">
         <v>210.4685249616771</v>
@@ -37642,10 +37642,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.20980919255746</v>
+        <v>160.9629210211799</v>
       </c>
       <c r="R39" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>81.04435071710338</v>
       </c>
       <c r="K40" t="n">
-        <v>229.3539877069512</v>
+        <v>101.8045329535804</v>
       </c>
       <c r="L40" t="n">
         <v>85.88436848122183</v>
@@ -37721,7 +37721,7 @@
         <v>58.5273896330951</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.78087626848712</v>
+        <v>145.330331021858</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>105.5027972499159</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8780108539569</v>
+        <v>178.8780108539572</v>
       </c>
       <c r="L41" t="n">
         <v>237.0101652455645</v>
@@ -37803,7 +37803,7 @@
         <v>137.495180358993</v>
       </c>
       <c r="R41" t="n">
-        <v>45.03976966517676</v>
+        <v>45.0397696651768</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>131.2398499471753</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K42" t="n">
         <v>126.2129637978143</v>
@@ -37879,10 +37879,10 @@
         <v>161.0105648696961</v>
       </c>
       <c r="Q42" t="n">
-        <v>438.1222037778995</v>
+        <v>179.2355201121358</v>
       </c>
       <c r="R42" t="n">
-        <v>10.99302404207744</v>
+        <v>99.85132351377567</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K43" t="n">
-        <v>130.8901606756001</v>
+        <v>57.55468273114204</v>
       </c>
       <c r="L43" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189867</v>
       </c>
       <c r="M43" t="n">
-        <v>91.88595864676546</v>
+        <v>438.1222037778995</v>
       </c>
       <c r="N43" t="n">
         <v>428.3037416218203</v>
@@ -37958,7 +37958,7 @@
         <v>58.5273896330951</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.27259909095641</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>55.13853315676233</v>
+        <v>301.2682341412404</v>
       </c>
       <c r="K45" t="n">
         <v>126.2129637978143</v>
@@ -38104,7 +38104,7 @@
         <v>188.6590359458716</v>
       </c>
       <c r="M45" t="n">
-        <v>359.7043886513226</v>
+        <v>228.0749152747277</v>
       </c>
       <c r="N45" t="n">
         <v>240.0058252713096</v>
@@ -38113,10 +38113,10 @@
         <v>210.4685249616771</v>
       </c>
       <c r="P45" t="n">
-        <v>438.1222037778995</v>
+        <v>161.0105648696961</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.20980919255746</v>
+        <v>268.093819583834</v>
       </c>
       <c r="R45" t="n">
         <v>10.99302404207744</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04435071710338</v>
+        <v>15.38640765514743</v>
       </c>
       <c r="K46" t="n">
         <v>57.55468273114204</v>
       </c>
       <c r="L46" t="n">
-        <v>403.034985890336</v>
+        <v>323.3416165189867</v>
       </c>
       <c r="M46" t="n">
         <v>438.1222037778995</v>
@@ -38189,13 +38189,13 @@
         <v>428.3037416218203</v>
       </c>
       <c r="O46" t="n">
-        <v>122.8692224949943</v>
+        <v>395.7699896816701</v>
       </c>
       <c r="P46" t="n">
         <v>58.5273896330951</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.330331021858</v>
+        <v>17.78087626848712</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
